--- a/data/extras/SV_Jahresberichte/Jahresergebnisse_24.xlsx
+++ b/data/extras/SV_Jahresberichte/Jahresergebnisse_24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\WU\WARRA\data\extras\SV_Veroeffentlichungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\WU\WARRA\data\extras\SV_Jahresberichte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E74D369-2289-4248-A8FB-2160917575FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D0897-6E40-49B0-8507-B4FC4EC134F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22440" yWindow="-16335" windowWidth="29040" windowHeight="15840" tabRatio="757" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="496">
   <si>
     <t>Versicherungsträger</t>
   </si>
@@ -2432,6 +2432,9 @@
   </si>
   <si>
     <t>Summe der oberen 3</t>
+  </si>
+  <si>
+    <t>Unterschied VSTR-RK</t>
   </si>
 </sst>
 </file>
@@ -2676,6 +2679,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3688,7 +3692,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="727">
+  <cellXfs count="729">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5261,6 +5265,12 @@
     <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5277,18 +5287,39 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5298,27 +5329,6 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5664,9 +5674,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6976,10 +6984,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Tabelle510"/>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -6990,7 +6998,7 @@
     <col min="14" max="16384" width="11.42578125" style="203"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="195" customFormat="1" ht="10.15" customHeight="1">
+    <row r="1" spans="1:20" s="195" customFormat="1" ht="10.15" customHeight="1">
       <c r="A1" s="351"/>
       <c r="B1" s="351"/>
       <c r="C1" s="351"/>
@@ -7005,24 +7013,24 @@
       <c r="L1" s="351"/>
       <c r="M1" s="196"/>
     </row>
-    <row r="2" spans="1:19" s="198" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A2" s="611" t="s">
+    <row r="2" spans="1:20" s="198" customFormat="1" ht="34.15" customHeight="1">
+      <c r="A2" s="613" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="611"/>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="611"/>
-      <c r="J2" s="611"/>
-      <c r="K2" s="611"/>
-      <c r="L2" s="611"/>
+      <c r="B2" s="613"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="613"/>
+      <c r="E2" s="613"/>
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="613"/>
+      <c r="J2" s="613"/>
+      <c r="K2" s="613"/>
+      <c r="L2" s="613"/>
       <c r="M2" s="197"/>
     </row>
-    <row r="3" spans="1:19" s="198" customFormat="1" ht="18.75" hidden="1">
+    <row r="3" spans="1:20" s="198" customFormat="1" ht="18.75" hidden="1">
       <c r="A3" s="352"/>
       <c r="B3" s="351"/>
       <c r="C3" s="351"/>
@@ -7037,7 +7045,7 @@
       <c r="L3" s="351"/>
       <c r="M3" s="197"/>
     </row>
-    <row r="4" spans="1:19" s="198" customFormat="1" ht="18.75" hidden="1">
+    <row r="4" spans="1:20" s="198" customFormat="1" ht="18.75" hidden="1">
       <c r="A4" s="352"/>
       <c r="B4" s="351"/>
       <c r="C4" s="351"/>
@@ -7052,41 +7060,41 @@
       <c r="L4" s="351"/>
       <c r="M4" s="197"/>
     </row>
-    <row r="5" spans="1:19" s="198" customFormat="1" ht="18.75">
-      <c r="A5" s="612" t="s">
+    <row r="5" spans="1:20" s="198" customFormat="1" ht="18.75">
+      <c r="A5" s="614" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="612"/>
-      <c r="C5" s="612"/>
-      <c r="D5" s="612"/>
-      <c r="E5" s="612"/>
-      <c r="F5" s="612"/>
-      <c r="G5" s="612"/>
-      <c r="H5" s="612"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="612"/>
-      <c r="K5" s="612"/>
-      <c r="L5" s="612"/>
+      <c r="B5" s="614"/>
+      <c r="C5" s="614"/>
+      <c r="D5" s="614"/>
+      <c r="E5" s="614"/>
+      <c r="F5" s="614"/>
+      <c r="G5" s="614"/>
+      <c r="H5" s="614"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="614"/>
       <c r="M5" s="197"/>
     </row>
-    <row r="6" spans="1:19" s="200" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A6" s="612" t="s">
+    <row r="6" spans="1:20" s="200" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A6" s="614" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="612"/>
-      <c r="C6" s="612"/>
-      <c r="D6" s="612"/>
-      <c r="E6" s="612"/>
-      <c r="F6" s="612"/>
-      <c r="G6" s="612"/>
-      <c r="H6" s="612"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="612"/>
-      <c r="K6" s="612"/>
-      <c r="L6" s="612"/>
+      <c r="B6" s="614"/>
+      <c r="C6" s="614"/>
+      <c r="D6" s="614"/>
+      <c r="E6" s="614"/>
+      <c r="F6" s="614"/>
+      <c r="G6" s="614"/>
+      <c r="H6" s="614"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="614"/>
       <c r="M6" s="353"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="351"/>
       <c r="B7" s="351"/>
       <c r="C7" s="351"/>
@@ -7103,7 +7111,7 @@
       </c>
       <c r="M7" s="354"/>
     </row>
-    <row r="8" spans="1:19" ht="50.25" customHeight="1">
+    <row r="8" spans="1:20" ht="50.25" customHeight="1">
       <c r="A8" s="355" t="s">
         <v>12</v>
       </c>
@@ -7141,7 +7149,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="205" customFormat="1" ht="26.45" customHeight="1">
+    <row r="9" spans="1:20" s="205" customFormat="1" ht="26.45" customHeight="1">
       <c r="A9" s="356" t="s">
         <v>283</v>
       </c>
@@ -7179,7 +7187,7 @@
         <v>250922</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="205" customFormat="1" ht="26.45" customHeight="1">
+    <row r="10" spans="1:20" s="205" customFormat="1" ht="26.45" customHeight="1">
       <c r="A10" s="356" t="s">
         <v>284</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>711268</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="358" customFormat="1" ht="18.95" customHeight="1">
+    <row r="11" spans="1:20" s="358" customFormat="1" ht="18.95" customHeight="1">
       <c r="A11" s="535" t="s">
         <v>285</v>
       </c>
@@ -7263,7 +7271,7 @@
         <v>0.81368124379918727</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="358" customFormat="1" ht="18.95" customHeight="1">
+    <row r="12" spans="1:20" s="358" customFormat="1" ht="18.95" customHeight="1">
       <c r="A12" s="459" t="s">
         <v>286</v>
       </c>
@@ -7304,12 +7312,13 @@
         <f t="shared" ref="N12:N13" si="0">B12/$B$9</f>
         <v>0.12929489035374203</v>
       </c>
-      <c r="S12" s="726">
+      <c r="S12" s="591">
         <f>SUM(C12:L12)</f>
         <v>1171842</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="358" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
+      <c r="T12" s="592"/>
+    </row>
+    <row r="13" spans="1:20" s="358" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
       <c r="A13" s="494" t="s">
         <v>287</v>
       </c>
@@ -7351,7 +7360,7 @@
         <v>0.13550144053045415</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="205" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
+    <row r="14" spans="1:20" s="205" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
       <c r="A14" s="540" t="s">
         <v>288</v>
       </c>
@@ -7393,7 +7402,7 @@
         <v>1.0784775746833835</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="358" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:20" s="358" customFormat="1" ht="18.95" customHeight="1">
       <c r="A15" s="535" t="s">
         <v>344</v>
       </c>
@@ -7431,7 +7440,7 @@
         <v>28227</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="358" customFormat="1" ht="18.95" customHeight="1">
+    <row r="16" spans="1:20" s="358" customFormat="1" ht="18.95" customHeight="1">
       <c r="A16" s="459" t="s">
         <v>345</v>
       </c>
@@ -7941,6 +7950,11 @@
       <c r="E33" s="362"/>
       <c r="F33" s="362"/>
     </row>
+    <row r="36" spans="1:6">
+      <c r="C36" s="203" t="s">
+        <v>495</v>
+      </c>
+    </row>
     <row r="37" spans="1:6">
       <c r="A37" s="215" t="s">
         <v>491</v>
@@ -7949,6 +7963,14 @@
         <f>SUM(B15:B23)</f>
         <v>7506759</v>
       </c>
+      <c r="C37" s="728">
+        <f>B37-B11</f>
+        <v>132099</v>
+      </c>
+      <c r="D37" s="203">
+        <f>C37/B11</f>
+        <v>1.7912554612687228E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="215" t="s">
@@ -7958,6 +7980,10 @@
         <f>SUM(B24:B25)</f>
         <v>1177976</v>
       </c>
+      <c r="C38" s="728">
+        <f t="shared" ref="C38:C39" si="1">B38-B12</f>
+        <v>6134</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="215" t="s">
@@ -7967,6 +7993,10 @@
         <f>SUM(B26:B27)</f>
         <v>1260118</v>
       </c>
+      <c r="C39" s="728">
+        <f t="shared" si="1"/>
+        <v>32024</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="215" t="s">
@@ -7975,6 +8005,10 @@
       <c r="B40" s="203">
         <f>SUM(B37:B39)</f>
         <v>9944853</v>
+      </c>
+      <c r="C40" s="728">
+        <f>B40-B10</f>
+        <v>170257</v>
       </c>
     </row>
   </sheetData>
@@ -8021,20 +8055,20 @@
       <c r="M1" s="196"/>
     </row>
     <row r="2" spans="1:13" s="198" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A2" s="611" t="s">
+      <c r="A2" s="613" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="611"/>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="611"/>
-      <c r="J2" s="611"/>
-      <c r="K2" s="611"/>
-      <c r="L2" s="611"/>
+      <c r="B2" s="613"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="613"/>
+      <c r="E2" s="613"/>
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="613"/>
+      <c r="J2" s="613"/>
+      <c r="K2" s="613"/>
+      <c r="L2" s="613"/>
       <c r="M2" s="197"/>
     </row>
     <row r="3" spans="1:13" s="198" customFormat="1" ht="18.75" hidden="1">
@@ -8068,37 +8102,37 @@
       <c r="M4" s="197"/>
     </row>
     <row r="5" spans="1:13" s="198" customFormat="1" ht="18.75">
-      <c r="A5" s="612" t="s">
+      <c r="A5" s="614" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="612"/>
-      <c r="C5" s="612"/>
-      <c r="D5" s="612"/>
-      <c r="E5" s="612"/>
-      <c r="F5" s="612"/>
-      <c r="G5" s="612"/>
-      <c r="H5" s="612"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="612"/>
-      <c r="K5" s="612"/>
-      <c r="L5" s="612"/>
+      <c r="B5" s="614"/>
+      <c r="C5" s="614"/>
+      <c r="D5" s="614"/>
+      <c r="E5" s="614"/>
+      <c r="F5" s="614"/>
+      <c r="G5" s="614"/>
+      <c r="H5" s="614"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="614"/>
       <c r="M5" s="197"/>
     </row>
     <row r="6" spans="1:13" s="200" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A6" s="612" t="s">
+      <c r="A6" s="614" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="612"/>
-      <c r="C6" s="612"/>
-      <c r="D6" s="612"/>
-      <c r="E6" s="612"/>
-      <c r="F6" s="612"/>
-      <c r="G6" s="612"/>
-      <c r="H6" s="612"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="612"/>
-      <c r="K6" s="612"/>
-      <c r="L6" s="612"/>
+      <c r="B6" s="614"/>
+      <c r="C6" s="614"/>
+      <c r="D6" s="614"/>
+      <c r="E6" s="614"/>
+      <c r="F6" s="614"/>
+      <c r="G6" s="614"/>
+      <c r="H6" s="614"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="614"/>
       <c r="M6" s="353"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
@@ -8976,20 +9010,20 @@
       <c r="M1" s="196"/>
     </row>
     <row r="2" spans="1:13" s="198" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A2" s="611" t="s">
+      <c r="A2" s="613" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="611"/>
-      <c r="F2" s="611"/>
-      <c r="G2" s="611"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="611"/>
-      <c r="J2" s="611"/>
-      <c r="K2" s="611"/>
-      <c r="L2" s="611"/>
+      <c r="B2" s="613"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="613"/>
+      <c r="E2" s="613"/>
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="613"/>
+      <c r="J2" s="613"/>
+      <c r="K2" s="613"/>
+      <c r="L2" s="613"/>
       <c r="M2" s="197"/>
     </row>
     <row r="3" spans="1:13" s="198" customFormat="1" ht="18.75" hidden="1">
@@ -9023,37 +9057,37 @@
       <c r="M4" s="197"/>
     </row>
     <row r="5" spans="1:13" s="198" customFormat="1" ht="18.75">
-      <c r="A5" s="612" t="s">
+      <c r="A5" s="614" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="612"/>
-      <c r="C5" s="612"/>
-      <c r="D5" s="612"/>
-      <c r="E5" s="612"/>
-      <c r="F5" s="612"/>
-      <c r="G5" s="612"/>
-      <c r="H5" s="612"/>
-      <c r="I5" s="612"/>
-      <c r="J5" s="612"/>
-      <c r="K5" s="612"/>
-      <c r="L5" s="612"/>
+      <c r="B5" s="614"/>
+      <c r="C5" s="614"/>
+      <c r="D5" s="614"/>
+      <c r="E5" s="614"/>
+      <c r="F5" s="614"/>
+      <c r="G5" s="614"/>
+      <c r="H5" s="614"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="614"/>
       <c r="M5" s="197"/>
     </row>
     <row r="6" spans="1:13" s="200" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A6" s="612" t="s">
+      <c r="A6" s="614" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="612"/>
-      <c r="C6" s="612"/>
-      <c r="D6" s="612"/>
-      <c r="E6" s="612"/>
-      <c r="F6" s="612"/>
-      <c r="G6" s="612"/>
-      <c r="H6" s="612"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="612"/>
-      <c r="K6" s="612"/>
-      <c r="L6" s="612"/>
+      <c r="B6" s="614"/>
+      <c r="C6" s="614"/>
+      <c r="D6" s="614"/>
+      <c r="E6" s="614"/>
+      <c r="F6" s="614"/>
+      <c r="G6" s="614"/>
+      <c r="H6" s="614"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="614"/>
       <c r="M6" s="353"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
@@ -9985,17 +10019,17 @@
       <c r="J2" s="369"/>
     </row>
     <row r="3" spans="1:10" ht="23.45" customHeight="1">
-      <c r="A3" s="613" t="s">
+      <c r="A3" s="615" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="613"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="613"/>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="613"/>
+      <c r="B3" s="615"/>
+      <c r="C3" s="615"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="615"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="615"/>
       <c r="J3" s="371"/>
     </row>
     <row r="4" spans="1:10" s="366" customFormat="1" ht="23.25" customHeight="1">
@@ -10008,26 +10042,26 @@
       <c r="J4" s="375"/>
     </row>
     <row r="5" spans="1:10" s="366" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="614" t="s">
+      <c r="A5" s="616" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="616" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="618" t="s">
+      <c r="B5" s="618" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="620" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="619"/>
-      <c r="E5" s="619"/>
-      <c r="F5" s="619"/>
-      <c r="G5" s="619"/>
-      <c r="H5" s="619"/>
-      <c r="I5" s="620"/>
+      <c r="D5" s="621"/>
+      <c r="E5" s="621"/>
+      <c r="F5" s="621"/>
+      <c r="G5" s="621"/>
+      <c r="H5" s="621"/>
+      <c r="I5" s="622"/>
       <c r="J5" s="376"/>
     </row>
     <row r="6" spans="1:10" s="366" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A6" s="615"/>
-      <c r="B6" s="617"/>
+      <c r="A6" s="617"/>
+      <c r="B6" s="619"/>
       <c r="C6" s="377" t="s">
         <v>265</v>
       </c>
@@ -10628,17 +10662,17 @@
       <c r="J2" s="369"/>
     </row>
     <row r="3" spans="1:10" ht="23.45" customHeight="1">
-      <c r="A3" s="613" t="s">
+      <c r="A3" s="615" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="613"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="613"/>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="613"/>
+      <c r="B3" s="615"/>
+      <c r="C3" s="615"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="615"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="615"/>
       <c r="J3" s="371"/>
     </row>
     <row r="4" spans="1:10" s="366" customFormat="1" ht="23.25" customHeight="1">
@@ -10651,26 +10685,26 @@
       <c r="J4" s="375"/>
     </row>
     <row r="5" spans="1:10" s="366" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="614" t="s">
+      <c r="A5" s="616" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="616" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="618" t="s">
+      <c r="B5" s="618" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="620" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="619"/>
-      <c r="E5" s="619"/>
-      <c r="F5" s="619"/>
-      <c r="G5" s="619"/>
-      <c r="H5" s="619"/>
-      <c r="I5" s="620"/>
+      <c r="D5" s="621"/>
+      <c r="E5" s="621"/>
+      <c r="F5" s="621"/>
+      <c r="G5" s="621"/>
+      <c r="H5" s="621"/>
+      <c r="I5" s="622"/>
       <c r="J5" s="376"/>
     </row>
     <row r="6" spans="1:10" s="366" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A6" s="615"/>
-      <c r="B6" s="617"/>
+      <c r="A6" s="617"/>
+      <c r="B6" s="619"/>
       <c r="C6" s="377" t="s">
         <v>265</v>
       </c>
@@ -11271,17 +11305,17 @@
       <c r="J2" s="369"/>
     </row>
     <row r="3" spans="1:10" ht="23.45" customHeight="1">
-      <c r="A3" s="613" t="s">
+      <c r="A3" s="615" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="613"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="613"/>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="613"/>
+      <c r="B3" s="615"/>
+      <c r="C3" s="615"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="615"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="615"/>
       <c r="J3" s="371"/>
     </row>
     <row r="4" spans="1:10" s="366" customFormat="1" ht="23.25" customHeight="1">
@@ -11294,26 +11328,26 @@
       <c r="J4" s="375"/>
     </row>
     <row r="5" spans="1:10" s="366" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="614" t="s">
+      <c r="A5" s="616" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="616" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="618" t="s">
+      <c r="B5" s="618" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="620" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="619"/>
-      <c r="E5" s="619"/>
-      <c r="F5" s="619"/>
-      <c r="G5" s="619"/>
-      <c r="H5" s="619"/>
-      <c r="I5" s="620"/>
+      <c r="D5" s="621"/>
+      <c r="E5" s="621"/>
+      <c r="F5" s="621"/>
+      <c r="G5" s="621"/>
+      <c r="H5" s="621"/>
+      <c r="I5" s="622"/>
       <c r="J5" s="376"/>
     </row>
     <row r="6" spans="1:10" s="366" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A6" s="615"/>
-      <c r="B6" s="617"/>
+      <c r="A6" s="617"/>
+      <c r="B6" s="619"/>
       <c r="C6" s="377" t="s">
         <v>265</v>
       </c>
@@ -11917,13 +11951,13 @@
       <c r="F3" s="369"/>
     </row>
     <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="613" t="s">
+      <c r="A4" s="615" t="s">
         <v>450</v>
       </c>
-      <c r="B4" s="613"/>
-      <c r="C4" s="613"/>
-      <c r="D4" s="613"/>
-      <c r="E4" s="613"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="615"/>
+      <c r="E4" s="615"/>
       <c r="F4" s="371"/>
     </row>
     <row r="5" spans="1:6" s="366" customFormat="1" ht="23.25" customHeight="1">
@@ -11935,25 +11969,25 @@
       <c r="F5" s="375"/>
     </row>
     <row r="6" spans="1:6" s="366" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="614" t="s">
+      <c r="A6" s="616" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="616" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="621" t="s">
+      <c r="B6" s="618" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="623" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="618" t="s">
+      <c r="D6" s="620" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="620"/>
+      <c r="E6" s="622"/>
       <c r="F6" s="376"/>
     </row>
     <row r="7" spans="1:6" s="366" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A7" s="615"/>
-      <c r="B7" s="617"/>
-      <c r="C7" s="617"/>
+      <c r="A7" s="617"/>
+      <c r="B7" s="619"/>
+      <c r="C7" s="619"/>
       <c r="D7" s="415" t="s">
         <v>7</v>
       </c>
@@ -12371,17 +12405,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="622" t="s">
+      <c r="B5" s="630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="624" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="623"/>
-      <c r="E5" s="624"/>
+      <c r="D5" s="625"/>
+      <c r="E5" s="626"/>
       <c r="F5" s="81" t="s">
         <v>1</v>
       </c>
@@ -12392,11 +12426,11 @@
       <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="625"/>
-      <c r="D6" s="626"/>
-      <c r="E6" s="627"/>
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="627"/>
+      <c r="D6" s="628"/>
+      <c r="E6" s="629"/>
       <c r="F6" s="81" t="s">
         <v>59</v>
       </c>
@@ -12409,8 +12443,8 @@
       <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="633"/>
-      <c r="B7" s="630"/>
+      <c r="A7" s="635"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="114" t="s">
         <v>73</v>
       </c>
@@ -12812,12 +12846,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="592" t="s">
+      <c r="A1" s="594" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="592"/>
-      <c r="C1" s="592"/>
-      <c r="D1" s="592"/>
+      <c r="B1" s="594"/>
+      <c r="C1" s="594"/>
+      <c r="D1" s="594"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="B2" s="554"/>
@@ -12831,14 +12865,14 @@
       <c r="B3" s="556" t="s">
         <v>462</v>
       </c>
-      <c r="C3" s="593"/>
-      <c r="D3" s="593"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="595"/>
     </row>
     <row r="4" spans="1:4" ht="14.25">
-      <c r="B4" s="594" t="s">
+      <c r="B4" s="596" t="s">
         <v>463</v>
       </c>
-      <c r="C4" s="594"/>
+      <c r="C4" s="596"/>
       <c r="D4" s="557" t="s">
         <v>362</v>
       </c>
@@ -12851,10 +12885,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
-      <c r="B6" s="594" t="s">
+      <c r="B6" s="596" t="s">
         <v>464</v>
       </c>
-      <c r="C6" s="594"/>
+      <c r="C6" s="596"/>
       <c r="D6" s="560" t="s">
         <v>10</v>
       </c>
@@ -12874,10 +12908,10 @@
       <c r="D8" s="572"/>
     </row>
     <row r="9" spans="1:4" ht="14.25">
-      <c r="B9" s="591" t="s">
+      <c r="B9" s="593" t="s">
         <v>465</v>
       </c>
-      <c r="C9" s="591"/>
+      <c r="C9" s="593"/>
       <c r="D9" s="569" t="s">
         <v>365</v>
       </c>
@@ -12890,10 +12924,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
-      <c r="B11" s="591" t="s">
+      <c r="B11" s="593" t="s">
         <v>466</v>
       </c>
-      <c r="C11" s="591" t="s">
+      <c r="C11" s="593" t="s">
         <v>366</v>
       </c>
       <c r="D11" s="569" t="s">
@@ -12908,10 +12942,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
-      <c r="B13" s="591" t="s">
+      <c r="B13" s="593" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="591" t="s">
+      <c r="C13" s="593" t="s">
         <v>369</v>
       </c>
       <c r="D13" s="569" t="s">
@@ -12926,10 +12960,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
-      <c r="B15" s="591" t="s">
+      <c r="B15" s="593" t="s">
         <v>468</v>
       </c>
-      <c r="C15" s="591" t="s">
+      <c r="C15" s="593" t="s">
         <v>371</v>
       </c>
       <c r="D15" s="569" t="s">
@@ -12958,10 +12992,10 @@
       <c r="E18" s="572"/>
     </row>
     <row r="19" spans="1:5" ht="14.25">
-      <c r="B19" s="591" t="s">
+      <c r="B19" s="593" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="591" t="s">
+      <c r="C19" s="593" t="s">
         <v>375</v>
       </c>
       <c r="D19" s="569" t="s">
@@ -12969,17 +13003,17 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25">
-      <c r="B20" s="591"/>
-      <c r="C20" s="591"/>
+      <c r="B20" s="593"/>
+      <c r="C20" s="593"/>
       <c r="D20" s="570" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25">
-      <c r="B21" s="591" t="s">
+      <c r="B21" s="593" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="591" t="s">
+      <c r="C21" s="593" t="s">
         <v>378</v>
       </c>
       <c r="D21" s="569" t="s">
@@ -12987,17 +13021,17 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25">
-      <c r="B22" s="591"/>
-      <c r="C22" s="591"/>
+      <c r="B22" s="593"/>
+      <c r="C22" s="593"/>
       <c r="D22" s="570" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25">
-      <c r="B23" s="591" t="s">
+      <c r="B23" s="593" t="s">
         <v>381</v>
       </c>
-      <c r="C23" s="591" t="s">
+      <c r="C23" s="593" t="s">
         <v>382</v>
       </c>
       <c r="D23" s="569" t="s">
@@ -13005,17 +13039,17 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25">
-      <c r="B24" s="591"/>
-      <c r="C24" s="591"/>
+      <c r="B24" s="593"/>
+      <c r="C24" s="593"/>
       <c r="D24" s="570" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25">
-      <c r="B25" s="591" t="s">
+      <c r="B25" s="593" t="s">
         <v>384</v>
       </c>
-      <c r="C25" s="591" t="s">
+      <c r="C25" s="593" t="s">
         <v>385</v>
       </c>
       <c r="D25" s="569" t="s">
@@ -13037,10 +13071,10 @@
       <c r="D27" s="569"/>
     </row>
     <row r="28" spans="1:5" ht="14.25">
-      <c r="B28" s="591" t="s">
+      <c r="B28" s="593" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="591" t="s">
+      <c r="C28" s="593" t="s">
         <v>390</v>
       </c>
       <c r="D28" s="569" t="s">
@@ -13048,10 +13082,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25">
-      <c r="B29" s="591" t="s">
+      <c r="B29" s="593" t="s">
         <v>391</v>
       </c>
-      <c r="C29" s="591" t="s">
+      <c r="C29" s="593" t="s">
         <v>392</v>
       </c>
       <c r="D29" s="569" t="s">
@@ -13066,10 +13100,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25">
-      <c r="B31" s="591" t="s">
+      <c r="B31" s="593" t="s">
         <v>395</v>
       </c>
-      <c r="C31" s="591" t="s">
+      <c r="C31" s="593" t="s">
         <v>396</v>
       </c>
       <c r="D31" s="569" t="s">
@@ -13077,10 +13111,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25">
-      <c r="B32" s="591" t="s">
+      <c r="B32" s="593" t="s">
         <v>398</v>
       </c>
-      <c r="C32" s="591" t="s">
+      <c r="C32" s="593" t="s">
         <v>399</v>
       </c>
       <c r="D32" s="569" t="s">
@@ -13095,10 +13129,10 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.25">
-      <c r="B34" s="591" t="s">
+      <c r="B34" s="593" t="s">
         <v>400</v>
       </c>
-      <c r="C34" s="591" t="s">
+      <c r="C34" s="593" t="s">
         <v>401</v>
       </c>
       <c r="D34" s="569" t="s">
@@ -13113,19 +13147,19 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.25">
-      <c r="B36" s="591" t="s">
+      <c r="B36" s="593" t="s">
         <v>403</v>
       </c>
-      <c r="C36" s="591"/>
+      <c r="C36" s="593"/>
       <c r="D36" s="569" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="14.25">
-      <c r="B37" s="591" t="s">
+      <c r="B37" s="593" t="s">
         <v>405</v>
       </c>
-      <c r="C37" s="591" t="s">
+      <c r="C37" s="593" t="s">
         <v>406</v>
       </c>
       <c r="D37" s="569" t="s">
@@ -13133,10 +13167,10 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.25">
-      <c r="B38" s="591" t="s">
+      <c r="B38" s="593" t="s">
         <v>407</v>
       </c>
-      <c r="C38" s="591" t="s">
+      <c r="C38" s="593" t="s">
         <v>408</v>
       </c>
       <c r="D38" s="569" t="s">
@@ -13144,17 +13178,17 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="14.25">
-      <c r="B39" s="591"/>
-      <c r="C39" s="591"/>
+      <c r="B39" s="593"/>
+      <c r="C39" s="593"/>
       <c r="D39" s="570" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="14.25">
-      <c r="B40" s="591" t="s">
+      <c r="B40" s="593" t="s">
         <v>409</v>
       </c>
-      <c r="C40" s="591" t="s">
+      <c r="C40" s="593" t="s">
         <v>410</v>
       </c>
       <c r="D40" s="569" t="s">
@@ -13169,10 +13203,10 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="14.25">
-      <c r="B42" s="591" t="s">
+      <c r="B42" s="593" t="s">
         <v>412</v>
       </c>
-      <c r="C42" s="591" t="s">
+      <c r="C42" s="593" t="s">
         <v>413</v>
       </c>
       <c r="D42" s="569" t="s">
@@ -13187,10 +13221,10 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="14.25">
-      <c r="B44" s="591" t="s">
+      <c r="B44" s="593" t="s">
         <v>471</v>
       </c>
-      <c r="C44" s="591" t="s">
+      <c r="C44" s="593" t="s">
         <v>415</v>
       </c>
       <c r="D44" s="570" t="s">
@@ -13307,13 +13341,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="634" t="s">
+      <c r="B5" s="636" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="634" t="s">
+      <c r="C5" s="636" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="46" t="s">
@@ -13328,38 +13362,38 @@
       <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="629"/>
-      <c r="D6" s="637" t="s">
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="631"/>
+      <c r="D6" s="639" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="636"/>
-      <c r="F6" s="638" t="s">
+      <c r="E6" s="638"/>
+      <c r="F6" s="640" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="636"/>
-      <c r="H6" s="635" t="s">
+      <c r="G6" s="638"/>
+      <c r="H6" s="637" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="635"/>
-      <c r="J6" s="635"/>
-      <c r="K6" s="636"/>
+      <c r="I6" s="637"/>
+      <c r="J6" s="637"/>
+      <c r="K6" s="638"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="632"/>
-      <c r="B7" s="629"/>
-      <c r="C7" s="629"/>
-      <c r="D7" s="628" t="s">
+      <c r="A7" s="634"/>
+      <c r="B7" s="631"/>
+      <c r="C7" s="631"/>
+      <c r="D7" s="630" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="628" t="s">
+      <c r="E7" s="630" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="628" t="s">
+      <c r="F7" s="630" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="628" t="s">
+      <c r="G7" s="630" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="81" t="s">
@@ -13372,13 +13406,13 @@
       <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="633"/>
-      <c r="B8" s="630"/>
-      <c r="C8" s="630"/>
-      <c r="D8" s="630"/>
-      <c r="E8" s="630"/>
-      <c r="F8" s="630"/>
-      <c r="G8" s="630"/>
+      <c r="A8" s="635"/>
+      <c r="B8" s="632"/>
+      <c r="C8" s="632"/>
+      <c r="D8" s="632"/>
+      <c r="E8" s="632"/>
+      <c r="F8" s="632"/>
+      <c r="G8" s="632"/>
       <c r="H8" s="98" t="s">
         <v>7</v>
       </c>
@@ -13913,13 +13947,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="634" t="s">
+      <c r="B5" s="636" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="641" t="s">
+      <c r="C5" s="643" t="s">
         <v>185</v>
       </c>
       <c r="D5" s="80" t="s">
@@ -13936,51 +13970,51 @@
       <c r="M5" s="82"/>
     </row>
     <row r="6" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="642"/>
-      <c r="D6" s="644" t="s">
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="644"/>
+      <c r="D6" s="646" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="623"/>
-      <c r="F6" s="644" t="s">
+      <c r="E6" s="625"/>
+      <c r="F6" s="646" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="645"/>
-      <c r="H6" s="644" t="s">
+      <c r="G6" s="647"/>
+      <c r="H6" s="646" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="645"/>
-      <c r="J6" s="648" t="s">
+      <c r="I6" s="647"/>
+      <c r="J6" s="650" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="648"/>
-      <c r="L6" s="648"/>
-      <c r="M6" s="649"/>
+      <c r="K6" s="650"/>
+      <c r="L6" s="650"/>
+      <c r="M6" s="651"/>
     </row>
     <row r="7" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A7" s="632"/>
-      <c r="B7" s="629"/>
-      <c r="C7" s="642"/>
-      <c r="D7" s="625"/>
-      <c r="E7" s="626"/>
-      <c r="F7" s="646"/>
-      <c r="G7" s="647"/>
-      <c r="H7" s="646"/>
-      <c r="I7" s="647"/>
-      <c r="J7" s="637" t="s">
+      <c r="A7" s="634"/>
+      <c r="B7" s="631"/>
+      <c r="C7" s="644"/>
+      <c r="D7" s="627"/>
+      <c r="E7" s="628"/>
+      <c r="F7" s="648"/>
+      <c r="G7" s="649"/>
+      <c r="H7" s="648"/>
+      <c r="I7" s="649"/>
+      <c r="J7" s="639" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="639"/>
-      <c r="L7" s="640" t="s">
+      <c r="K7" s="641"/>
+      <c r="L7" s="642" t="s">
         <v>189</v>
       </c>
-      <c r="M7" s="639"/>
+      <c r="M7" s="641"/>
     </row>
     <row r="8" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A8" s="633"/>
-      <c r="B8" s="630"/>
-      <c r="C8" s="643"/>
+      <c r="A8" s="635"/>
+      <c r="B8" s="632"/>
+      <c r="C8" s="645"/>
       <c r="D8" s="73" t="s">
         <v>7</v>
       </c>
@@ -15601,10 +15635,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A4" s="631" t="s">
+      <c r="A4" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="634" t="s">
+      <c r="B4" s="636" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="80" t="s">
@@ -15623,54 +15657,54 @@
       <c r="L4" s="82"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A5" s="632"/>
-      <c r="B5" s="629"/>
-      <c r="C5" s="628" t="s">
+      <c r="A5" s="634"/>
+      <c r="B5" s="631"/>
+      <c r="C5" s="630" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="644" t="s">
+      <c r="D5" s="646" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="634" t="s">
+      <c r="E5" s="636" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="634" t="s">
+      <c r="F5" s="636" t="s">
         <v>93</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="81"/>
-      <c r="I5" s="634" t="s">
+      <c r="I5" s="636" t="s">
         <v>329</v>
       </c>
-      <c r="J5" s="644" t="s">
+      <c r="J5" s="646" t="s">
         <v>330</v>
       </c>
-      <c r="K5" s="634" t="s">
+      <c r="K5" s="636" t="s">
         <v>338</v>
       </c>
-      <c r="L5" s="645" t="s">
+      <c r="L5" s="647" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
-      <c r="A6" s="633"/>
-      <c r="B6" s="630"/>
-      <c r="C6" s="630"/>
-      <c r="D6" s="625"/>
-      <c r="E6" s="630"/>
-      <c r="F6" s="630"/>
+      <c r="A6" s="635"/>
+      <c r="B6" s="632"/>
+      <c r="C6" s="632"/>
+      <c r="D6" s="627"/>
+      <c r="E6" s="632"/>
+      <c r="F6" s="632"/>
       <c r="G6" s="96" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="630"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="630"/>
-      <c r="L6" s="627"/>
+      <c r="I6" s="632"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="632"/>
+      <c r="L6" s="629"/>
     </row>
     <row r="7" spans="1:12" s="41" customFormat="1" ht="18.95" customHeight="1">
       <c r="A7" s="40">
@@ -16592,56 +16626,56 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="439" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A5" s="652" t="s">
+      <c r="A5" s="654" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="654" t="s">
+      <c r="B5" s="656" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="656" t="s">
+      <c r="C5" s="658" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="656" t="s">
+      <c r="D5" s="658" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="217" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="218"/>
-      <c r="G5" s="656" t="s">
+      <c r="G5" s="658" t="s">
         <v>313</v>
       </c>
       <c r="H5" s="217" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="218"/>
-      <c r="J5" s="656" t="s">
+      <c r="J5" s="658" t="s">
         <v>358</v>
       </c>
-      <c r="K5" s="650" t="s">
+      <c r="K5" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="651"/>
+      <c r="L5" s="653"/>
     </row>
     <row r="6" spans="1:14" s="439" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A6" s="653"/>
-      <c r="B6" s="655"/>
-      <c r="C6" s="655"/>
-      <c r="D6" s="657"/>
+      <c r="A6" s="655"/>
+      <c r="B6" s="657"/>
+      <c r="C6" s="657"/>
+      <c r="D6" s="659"/>
       <c r="E6" s="425" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="440" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="655"/>
+      <c r="G6" s="657"/>
       <c r="H6" s="441" t="s">
         <v>314</v>
       </c>
       <c r="I6" s="442" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="657"/>
+      <c r="J6" s="659"/>
       <c r="K6" s="545" t="s">
         <v>315</v>
       </c>
@@ -18135,56 +18169,56 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="439" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A5" s="652" t="s">
+      <c r="A5" s="654" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="654" t="s">
+      <c r="B5" s="656" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="656" t="s">
+      <c r="C5" s="658" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="656" t="s">
+      <c r="D5" s="658" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="217" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="218"/>
-      <c r="G5" s="656" t="s">
+      <c r="G5" s="658" t="s">
         <v>313</v>
       </c>
       <c r="H5" s="423" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="424"/>
-      <c r="J5" s="656" t="s">
+      <c r="J5" s="658" t="s">
         <v>358</v>
       </c>
-      <c r="K5" s="650" t="s">
+      <c r="K5" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="651"/>
+      <c r="L5" s="653"/>
     </row>
     <row r="6" spans="1:22" s="439" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="653"/>
-      <c r="B6" s="655"/>
-      <c r="C6" s="655"/>
-      <c r="D6" s="657"/>
+      <c r="A6" s="655"/>
+      <c r="B6" s="657"/>
+      <c r="C6" s="657"/>
+      <c r="D6" s="659"/>
       <c r="E6" s="425" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="440" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="655"/>
+      <c r="G6" s="657"/>
       <c r="H6" s="441" t="s">
         <v>314</v>
       </c>
       <c r="I6" s="442" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="657"/>
+      <c r="J6" s="659"/>
       <c r="K6" s="545" t="s">
         <v>315</v>
       </c>
@@ -20657,56 +20691,56 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="661" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
+      <c r="B5" s="630" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="634" t="s">
+      <c r="C5" s="636" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="634" t="s">
+      <c r="D5" s="636" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="80" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="82"/>
-      <c r="G5" s="634" t="s">
+      <c r="G5" s="636" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="637" t="s">
+      <c r="H5" s="639" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="639"/>
-      <c r="J5" s="634" t="s">
+      <c r="I5" s="641"/>
+      <c r="J5" s="636" t="s">
         <v>358</v>
       </c>
-      <c r="K5" s="637" t="s">
+      <c r="K5" s="639" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="639"/>
+      <c r="L5" s="641"/>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A6" s="660"/>
-      <c r="B6" s="630"/>
-      <c r="C6" s="630"/>
-      <c r="D6" s="658"/>
+      <c r="A6" s="662"/>
+      <c r="B6" s="632"/>
+      <c r="C6" s="632"/>
+      <c r="D6" s="660"/>
       <c r="E6" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="630"/>
+      <c r="G6" s="632"/>
       <c r="H6" s="105" t="s">
         <v>314</v>
       </c>
       <c r="I6" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="658"/>
+      <c r="J6" s="660"/>
       <c r="K6" s="443" t="s">
         <v>315</v>
       </c>
@@ -21196,56 +21230,56 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="661" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
+      <c r="B5" s="630" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="634" t="s">
+      <c r="C5" s="636" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="634" t="s">
+      <c r="D5" s="636" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="80" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="82"/>
-      <c r="G5" s="634" t="s">
+      <c r="G5" s="636" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="637" t="s">
+      <c r="H5" s="639" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="639"/>
-      <c r="J5" s="634" t="s">
+      <c r="I5" s="641"/>
+      <c r="J5" s="636" t="s">
         <v>358</v>
       </c>
-      <c r="K5" s="637" t="s">
+      <c r="K5" s="639" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="639"/>
+      <c r="L5" s="641"/>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A6" s="660"/>
-      <c r="B6" s="630"/>
-      <c r="C6" s="630"/>
-      <c r="D6" s="658"/>
+      <c r="A6" s="662"/>
+      <c r="B6" s="632"/>
+      <c r="C6" s="632"/>
+      <c r="D6" s="660"/>
       <c r="E6" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="630"/>
+      <c r="G6" s="632"/>
       <c r="H6" s="105" t="s">
         <v>314</v>
       </c>
       <c r="I6" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="658"/>
+      <c r="J6" s="660"/>
       <c r="K6" s="443" t="s">
         <v>315</v>
       </c>
@@ -21734,56 +21768,56 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="21" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="661" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
+      <c r="B5" s="630" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="634" t="s">
+      <c r="C5" s="636" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="634" t="s">
+      <c r="D5" s="636" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="80" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="82"/>
-      <c r="G5" s="634" t="s">
+      <c r="G5" s="636" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="637" t="s">
+      <c r="H5" s="639" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="639"/>
-      <c r="J5" s="634" t="s">
+      <c r="I5" s="641"/>
+      <c r="J5" s="636" t="s">
         <v>358</v>
       </c>
-      <c r="K5" s="637" t="s">
+      <c r="K5" s="639" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="639"/>
+      <c r="L5" s="641"/>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A6" s="660"/>
-      <c r="B6" s="630"/>
-      <c r="C6" s="630"/>
-      <c r="D6" s="658"/>
+      <c r="A6" s="662"/>
+      <c r="B6" s="632"/>
+      <c r="C6" s="632"/>
+      <c r="D6" s="660"/>
       <c r="E6" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="630"/>
+      <c r="G6" s="632"/>
       <c r="H6" s="105" t="s">
         <v>314</v>
       </c>
       <c r="I6" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="658"/>
+      <c r="J6" s="660"/>
       <c r="K6" s="443" t="s">
         <v>315</v>
       </c>
@@ -22216,10 +22250,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="595" t="s">
+      <c r="A2" s="597" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="595" t="s">
+      <c r="B2" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C2" s="562" t="s">
@@ -22227,10 +22261,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="595" t="s">
+      <c r="A3" s="597" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="595" t="s">
+      <c r="B3" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C3" s="562" t="s">
@@ -22238,10 +22272,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="595" t="s">
+      <c r="A4" s="597" t="s">
         <v>419</v>
       </c>
-      <c r="B4" s="595" t="s">
+      <c r="B4" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C4" s="562" t="s">
@@ -22256,10 +22290,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="595" t="s">
+      <c r="A6" s="597" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="595" t="s">
+      <c r="B6" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C6" s="562" t="s">
@@ -22274,10 +22308,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="595" t="s">
+      <c r="A8" s="597" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="595" t="s">
+      <c r="B8" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C8" s="562" t="s">
@@ -22292,10 +22326,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="595" t="s">
+      <c r="A10" s="597" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="595" t="s">
+      <c r="B10" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C10" s="562" t="s">
@@ -22310,10 +22344,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="595" t="s">
+      <c r="A12" s="597" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="595" t="s">
+      <c r="B12" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C12" s="562" t="s">
@@ -22328,10 +22362,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25">
-      <c r="A14" s="595" t="s">
+      <c r="A14" s="597" t="s">
         <v>426</v>
       </c>
-      <c r="B14" s="595" t="s">
+      <c r="B14" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C14" s="562" t="s">
@@ -22346,10 +22380,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25">
-      <c r="A16" s="595" t="s">
+      <c r="A16" s="597" t="s">
         <v>427</v>
       </c>
-      <c r="B16" s="595" t="s">
+      <c r="B16" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C16" s="562" t="s">
@@ -22371,10 +22405,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25">
-      <c r="A19" s="595" t="s">
+      <c r="A19" s="597" t="s">
         <v>430</v>
       </c>
-      <c r="B19" s="595" t="s">
+      <c r="B19" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C19" s="562" t="s">
@@ -22396,10 +22430,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25">
-      <c r="A22" s="595" t="s">
+      <c r="A22" s="597" t="s">
         <v>431</v>
       </c>
-      <c r="B22" s="595" t="s">
+      <c r="B22" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C22" s="562" t="s">
@@ -22429,16 +22463,16 @@
       <c r="A26" s="567" t="s">
         <v>432</v>
       </c>
-      <c r="B26" s="596" t="s">
+      <c r="B26" s="598" t="s">
         <v>433</v>
       </c>
-      <c r="C26" s="596"/>
+      <c r="C26" s="598"/>
     </row>
     <row r="27" spans="1:3" ht="14.25">
-      <c r="A27" s="595" t="s">
+      <c r="A27" s="597" t="s">
         <v>434</v>
       </c>
-      <c r="B27" s="595" t="s">
+      <c r="B27" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C27" s="562" t="s">
@@ -22453,10 +22487,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="595" t="s">
+      <c r="A29" s="597" t="s">
         <v>436</v>
       </c>
-      <c r="B29" s="595" t="s">
+      <c r="B29" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C29" s="562" t="s">
@@ -22471,10 +22505,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25">
-      <c r="A31" s="595" t="s">
+      <c r="A31" s="597" t="s">
         <v>438</v>
       </c>
-      <c r="B31" s="595" t="s">
+      <c r="B31" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C31" s="562" t="s">
@@ -22489,10 +22523,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="595" t="s">
+      <c r="A33" s="597" t="s">
         <v>440</v>
       </c>
-      <c r="B33" s="595" t="s">
+      <c r="B33" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C33" s="562" t="s">
@@ -22515,16 +22549,16 @@
       <c r="A36" s="567" t="s">
         <v>442</v>
       </c>
-      <c r="B36" s="596" t="s">
+      <c r="B36" s="598" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="596"/>
+      <c r="C36" s="598"/>
     </row>
     <row r="37" spans="1:3" ht="14.25">
-      <c r="A37" s="595" t="s">
+      <c r="A37" s="597" t="s">
         <v>443</v>
       </c>
-      <c r="B37" s="595" t="s">
+      <c r="B37" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C37" s="562" t="s">
@@ -22539,10 +22573,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25">
-      <c r="A39" s="595" t="s">
+      <c r="A39" s="597" t="s">
         <v>446</v>
       </c>
-      <c r="B39" s="595" t="s">
+      <c r="B39" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C39" s="562" t="s">
@@ -22550,10 +22584,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25">
-      <c r="A40" s="595" t="s">
+      <c r="A40" s="597" t="s">
         <v>448</v>
       </c>
-      <c r="B40" s="595" t="s">
+      <c r="B40" s="597" t="s">
         <v>413</v>
       </c>
       <c r="C40" s="562" t="s">
@@ -22659,16 +22693,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="634" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="622" t="s">
+      <c r="B5" s="636" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="624" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="624"/>
+      <c r="D5" s="626"/>
       <c r="E5" s="46" t="s">
         <v>247</v>
       </c>
@@ -22681,34 +22715,34 @@
       <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12" ht="42" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
-      <c r="E6" s="644" t="s">
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="663"/>
+      <c r="D6" s="664"/>
+      <c r="E6" s="646" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="624"/>
-      <c r="G6" s="622" t="s">
+      <c r="F6" s="626"/>
+      <c r="G6" s="624" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="624"/>
-      <c r="I6" s="638" t="s">
+      <c r="H6" s="626"/>
+      <c r="I6" s="640" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="635"/>
-      <c r="K6" s="635"/>
-      <c r="L6" s="636"/>
+      <c r="J6" s="637"/>
+      <c r="K6" s="637"/>
+      <c r="L6" s="638"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="A7" s="632"/>
-      <c r="B7" s="629"/>
-      <c r="C7" s="625"/>
-      <c r="D7" s="627"/>
-      <c r="E7" s="625"/>
-      <c r="F7" s="627"/>
-      <c r="G7" s="625"/>
-      <c r="H7" s="627"/>
+      <c r="A7" s="634"/>
+      <c r="B7" s="631"/>
+      <c r="C7" s="627"/>
+      <c r="D7" s="629"/>
+      <c r="E7" s="627"/>
+      <c r="F7" s="629"/>
+      <c r="G7" s="627"/>
+      <c r="H7" s="629"/>
       <c r="I7" s="81" t="s">
         <v>83</v>
       </c>
@@ -22719,8 +22753,8 @@
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="A8" s="633"/>
-      <c r="B8" s="630"/>
+      <c r="A8" s="635"/>
+      <c r="B8" s="632"/>
       <c r="C8" s="114" t="s">
         <v>26</v>
       </c>
@@ -23277,16 +23311,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.6" customHeight="1">
-      <c r="A4" s="631" t="s">
+      <c r="A4" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="628" t="s">
+      <c r="B4" s="630" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="634" t="s">
+      <c r="C4" s="636" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="634" t="s">
+      <c r="D4" s="636" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="81" t="s">
@@ -23295,15 +23329,15 @@
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
-      <c r="I4" s="634" t="s">
+      <c r="I4" s="636" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.15" customHeight="1">
-      <c r="A5" s="633"/>
-      <c r="B5" s="630"/>
-      <c r="C5" s="630"/>
-      <c r="D5" s="630"/>
+      <c r="A5" s="635"/>
+      <c r="B5" s="632"/>
+      <c r="C5" s="632"/>
+      <c r="D5" s="632"/>
       <c r="E5" s="97" t="s">
         <v>119</v>
       </c>
@@ -23316,7 +23350,7 @@
       <c r="H5" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="630"/>
+      <c r="I5" s="632"/>
     </row>
     <row r="6" spans="1:9" s="41" customFormat="1" ht="34.9" customHeight="1" thickBot="1">
       <c r="A6" s="57">
@@ -23829,13 +23863,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="634" t="s">
+      <c r="B5" s="630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="636" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -23848,13 +23882,13 @@
       <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="663"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="634" t="s">
+      <c r="A6" s="665"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="636" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="634" t="s">
+      <c r="E6" s="636" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="80" t="s">
@@ -23867,11 +23901,11 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1">
-      <c r="A7" s="664"/>
-      <c r="B7" s="630"/>
-      <c r="C7" s="658"/>
-      <c r="D7" s="658"/>
-      <c r="E7" s="658"/>
+      <c r="A7" s="666"/>
+      <c r="B7" s="632"/>
+      <c r="C7" s="660"/>
+      <c r="D7" s="660"/>
+      <c r="E7" s="660"/>
       <c r="F7" s="117" t="s">
         <v>193</v>
       </c>
@@ -24273,13 +24307,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="634" t="s">
+      <c r="B5" s="630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="636" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -24292,13 +24326,13 @@
       <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="663"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="634" t="s">
+      <c r="A6" s="665"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="636" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="634" t="s">
+      <c r="E6" s="636" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="80" t="s">
@@ -24311,11 +24345,11 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1">
-      <c r="A7" s="664"/>
-      <c r="B7" s="630"/>
-      <c r="C7" s="658"/>
-      <c r="D7" s="658"/>
-      <c r="E7" s="658"/>
+      <c r="A7" s="666"/>
+      <c r="B7" s="632"/>
+      <c r="C7" s="660"/>
+      <c r="D7" s="660"/>
+      <c r="E7" s="660"/>
       <c r="F7" s="117" t="s">
         <v>193</v>
       </c>
@@ -24717,13 +24751,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="634" t="s">
+      <c r="B5" s="630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="636" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -24736,13 +24770,13 @@
       <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="634" t="s">
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="636" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="634" t="s">
+      <c r="E6" s="636" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="80" t="s">
@@ -24755,11 +24789,11 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1">
-      <c r="A7" s="633"/>
-      <c r="B7" s="630"/>
-      <c r="C7" s="658"/>
-      <c r="D7" s="658"/>
-      <c r="E7" s="658"/>
+      <c r="A7" s="635"/>
+      <c r="B7" s="632"/>
+      <c r="C7" s="660"/>
+      <c r="D7" s="660"/>
+      <c r="E7" s="660"/>
       <c r="F7" s="117" t="s">
         <v>193</v>
       </c>
@@ -25163,13 +25197,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="634" t="s">
+      <c r="B5" s="630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="636" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -25182,13 +25216,13 @@
       <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="634" t="s">
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="636" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="634" t="s">
+      <c r="E6" s="636" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="80" t="s">
@@ -25201,11 +25235,11 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1">
-      <c r="A7" s="633"/>
-      <c r="B7" s="630"/>
-      <c r="C7" s="658"/>
-      <c r="D7" s="658"/>
-      <c r="E7" s="658"/>
+      <c r="A7" s="635"/>
+      <c r="B7" s="632"/>
+      <c r="C7" s="660"/>
+      <c r="D7" s="660"/>
+      <c r="E7" s="660"/>
       <c r="F7" s="117" t="s">
         <v>193</v>
       </c>
@@ -25609,13 +25643,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="634" t="s">
+      <c r="B5" s="630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="636" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -25628,13 +25662,13 @@
       <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="634" t="s">
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="636" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="634" t="s">
+      <c r="E6" s="636" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="80" t="s">
@@ -25647,11 +25681,11 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1">
-      <c r="A7" s="633"/>
-      <c r="B7" s="630"/>
-      <c r="C7" s="658"/>
-      <c r="D7" s="658"/>
-      <c r="E7" s="658"/>
+      <c r="A7" s="635"/>
+      <c r="B7" s="632"/>
+      <c r="C7" s="660"/>
+      <c r="D7" s="660"/>
+      <c r="E7" s="660"/>
       <c r="F7" s="117" t="s">
         <v>193</v>
       </c>
@@ -26055,13 +26089,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="631" t="s">
+      <c r="A5" s="633" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="634" t="s">
+      <c r="B5" s="630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="636" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -26074,13 +26108,13 @@
       <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="632"/>
-      <c r="B6" s="629"/>
-      <c r="C6" s="665"/>
-      <c r="D6" s="634" t="s">
+      <c r="A6" s="634"/>
+      <c r="B6" s="631"/>
+      <c r="C6" s="667"/>
+      <c r="D6" s="636" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="634" t="s">
+      <c r="E6" s="636" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="80" t="s">
@@ -26093,11 +26127,11 @@
       <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1">
-      <c r="A7" s="633"/>
-      <c r="B7" s="630"/>
-      <c r="C7" s="658"/>
-      <c r="D7" s="658"/>
-      <c r="E7" s="658"/>
+      <c r="A7" s="635"/>
+      <c r="B7" s="632"/>
+      <c r="C7" s="660"/>
+      <c r="D7" s="660"/>
+      <c r="E7" s="660"/>
       <c r="F7" s="117" t="s">
         <v>193</v>
       </c>
@@ -26518,13 +26552,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="22.15" customHeight="1">
-      <c r="A6" s="669" t="s">
+      <c r="A6" s="671" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="656" t="s">
+      <c r="B6" s="658" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="656" t="s">
+      <c r="C6" s="658" t="s">
         <v>223</v>
       </c>
       <c r="D6" s="216" t="s">
@@ -26539,9 +26573,9 @@
       <c r="I6" s="218"/>
     </row>
     <row r="7" spans="1:14" ht="62.45" customHeight="1">
-      <c r="A7" s="670"/>
-      <c r="B7" s="655"/>
-      <c r="C7" s="657"/>
+      <c r="A7" s="672"/>
+      <c r="B7" s="657"/>
+      <c r="C7" s="659"/>
       <c r="D7" s="220" t="s">
         <v>224</v>
       </c>
@@ -26565,7 +26599,7 @@
       <c r="A8" s="204">
         <v>1</v>
       </c>
-      <c r="B8" s="671" t="s">
+      <c r="B8" s="673" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="221" t="s">
@@ -26599,7 +26633,7 @@
       <c r="A9" s="208">
         <v>2</v>
       </c>
-      <c r="B9" s="672"/>
+      <c r="B9" s="674"/>
       <c r="C9" s="224" t="s">
         <v>227</v>
       </c>
@@ -26631,7 +26665,7 @@
       <c r="A10" s="208">
         <v>3</v>
       </c>
-      <c r="B10" s="672"/>
+      <c r="B10" s="674"/>
       <c r="C10" s="227" t="s">
         <v>228</v>
       </c>
@@ -26663,7 +26697,7 @@
       <c r="A11" s="208">
         <v>4</v>
       </c>
-      <c r="B11" s="672"/>
+      <c r="B11" s="674"/>
       <c r="C11" s="227" t="s">
         <v>229</v>
       </c>
@@ -26695,7 +26729,7 @@
       <c r="A12" s="208">
         <v>5</v>
       </c>
-      <c r="B12" s="672"/>
+      <c r="B12" s="674"/>
       <c r="C12" s="227" t="s">
         <v>230</v>
       </c>
@@ -26727,7 +26761,7 @@
       <c r="A13" s="208">
         <v>6</v>
       </c>
-      <c r="B13" s="672"/>
+      <c r="B13" s="674"/>
       <c r="C13" s="224" t="s">
         <v>231</v>
       </c>
@@ -26759,7 +26793,7 @@
       <c r="A14" s="208">
         <v>7</v>
       </c>
-      <c r="B14" s="672"/>
+      <c r="B14" s="674"/>
       <c r="C14" s="227" t="s">
         <v>232</v>
       </c>
@@ -26791,7 +26825,7 @@
       <c r="A15" s="208">
         <v>8</v>
       </c>
-      <c r="B15" s="672"/>
+      <c r="B15" s="674"/>
       <c r="C15" s="227" t="s">
         <v>233</v>
       </c>
@@ -26823,7 +26857,7 @@
       <c r="A16" s="208">
         <v>9</v>
       </c>
-      <c r="B16" s="672"/>
+      <c r="B16" s="674"/>
       <c r="C16" s="224" t="s">
         <v>234</v>
       </c>
@@ -26855,7 +26889,7 @@
       <c r="A17" s="208">
         <v>10</v>
       </c>
-      <c r="B17" s="672"/>
+      <c r="B17" s="674"/>
       <c r="C17" s="227" t="s">
         <v>235</v>
       </c>
@@ -26887,7 +26921,7 @@
       <c r="A18" s="208">
         <v>11</v>
       </c>
-      <c r="B18" s="672"/>
+      <c r="B18" s="674"/>
       <c r="C18" s="227" t="s">
         <v>236</v>
       </c>
@@ -26919,7 +26953,7 @@
       <c r="A19" s="212">
         <v>12</v>
       </c>
-      <c r="B19" s="673"/>
+      <c r="B19" s="675"/>
       <c r="C19" s="228" t="s">
         <v>237</v>
       </c>
@@ -26951,7 +26985,7 @@
       <c r="A20" s="213">
         <v>13</v>
       </c>
-      <c r="B20" s="674" t="s">
+      <c r="B20" s="676" t="s">
         <v>252</v>
       </c>
       <c r="C20" s="231" t="s">
@@ -26985,7 +27019,7 @@
       <c r="A21" s="208">
         <v>14</v>
       </c>
-      <c r="B21" s="667"/>
+      <c r="B21" s="669"/>
       <c r="C21" s="224" t="s">
         <v>238</v>
       </c>
@@ -27017,7 +27051,7 @@
       <c r="A22" s="208">
         <v>15</v>
       </c>
-      <c r="B22" s="667"/>
+      <c r="B22" s="669"/>
       <c r="C22" s="227" t="s">
         <v>228</v>
       </c>
@@ -27049,7 +27083,7 @@
       <c r="A23" s="208">
         <v>16</v>
       </c>
-      <c r="B23" s="667"/>
+      <c r="B23" s="669"/>
       <c r="C23" s="227" t="s">
         <v>229</v>
       </c>
@@ -27081,7 +27115,7 @@
       <c r="A24" s="208">
         <v>17</v>
       </c>
-      <c r="B24" s="667"/>
+      <c r="B24" s="669"/>
       <c r="C24" s="227" t="s">
         <v>230</v>
       </c>
@@ -27113,7 +27147,7 @@
       <c r="A25" s="208">
         <v>18</v>
       </c>
-      <c r="B25" s="667"/>
+      <c r="B25" s="669"/>
       <c r="C25" s="224" t="s">
         <v>231</v>
       </c>
@@ -27145,7 +27179,7 @@
       <c r="A26" s="208">
         <v>19</v>
       </c>
-      <c r="B26" s="667"/>
+      <c r="B26" s="669"/>
       <c r="C26" s="227" t="s">
         <v>232</v>
       </c>
@@ -27177,7 +27211,7 @@
       <c r="A27" s="208">
         <v>20</v>
       </c>
-      <c r="B27" s="667"/>
+      <c r="B27" s="669"/>
       <c r="C27" s="227" t="s">
         <v>233</v>
       </c>
@@ -27209,7 +27243,7 @@
       <c r="A28" s="208">
         <v>21</v>
       </c>
-      <c r="B28" s="667"/>
+      <c r="B28" s="669"/>
       <c r="C28" s="224" t="s">
         <v>234</v>
       </c>
@@ -27241,7 +27275,7 @@
       <c r="A29" s="208">
         <v>22</v>
       </c>
-      <c r="B29" s="667"/>
+      <c r="B29" s="669"/>
       <c r="C29" s="227" t="s">
         <v>235</v>
       </c>
@@ -27273,7 +27307,7 @@
       <c r="A30" s="208">
         <v>23</v>
       </c>
-      <c r="B30" s="667"/>
+      <c r="B30" s="669"/>
       <c r="C30" s="227" t="s">
         <v>236</v>
       </c>
@@ -27305,7 +27339,7 @@
       <c r="A31" s="214">
         <v>24</v>
       </c>
-      <c r="B31" s="668"/>
+      <c r="B31" s="670"/>
       <c r="C31" s="234" t="s">
         <v>237</v>
       </c>
@@ -27337,7 +27371,7 @@
       <c r="A32" s="204">
         <v>25</v>
       </c>
-      <c r="B32" s="666" t="s">
+      <c r="B32" s="668" t="s">
         <v>253</v>
       </c>
       <c r="C32" s="237" t="s">
@@ -27371,7 +27405,7 @@
       <c r="A33" s="208">
         <v>26</v>
       </c>
-      <c r="B33" s="667"/>
+      <c r="B33" s="669"/>
       <c r="C33" s="224" t="s">
         <v>239</v>
       </c>
@@ -27403,7 +27437,7 @@
       <c r="A34" s="208">
         <v>27</v>
       </c>
-      <c r="B34" s="667"/>
+      <c r="B34" s="669"/>
       <c r="C34" s="227" t="s">
         <v>228</v>
       </c>
@@ -27435,7 +27469,7 @@
       <c r="A35" s="208">
         <v>28</v>
       </c>
-      <c r="B35" s="667"/>
+      <c r="B35" s="669"/>
       <c r="C35" s="227" t="s">
         <v>229</v>
       </c>
@@ -27467,7 +27501,7 @@
       <c r="A36" s="208">
         <v>29</v>
       </c>
-      <c r="B36" s="667"/>
+      <c r="B36" s="669"/>
       <c r="C36" s="227" t="s">
         <v>230</v>
       </c>
@@ -27499,7 +27533,7 @@
       <c r="A37" s="208">
         <v>30</v>
       </c>
-      <c r="B37" s="667"/>
+      <c r="B37" s="669"/>
       <c r="C37" s="224" t="s">
         <v>231</v>
       </c>
@@ -27531,7 +27565,7 @@
       <c r="A38" s="208">
         <v>31</v>
       </c>
-      <c r="B38" s="667"/>
+      <c r="B38" s="669"/>
       <c r="C38" s="227" t="s">
         <v>232</v>
       </c>
@@ -27563,7 +27597,7 @@
       <c r="A39" s="208">
         <v>32</v>
       </c>
-      <c r="B39" s="667"/>
+      <c r="B39" s="669"/>
       <c r="C39" s="227" t="s">
         <v>233</v>
       </c>
@@ -27595,7 +27629,7 @@
       <c r="A40" s="208">
         <v>33</v>
       </c>
-      <c r="B40" s="667"/>
+      <c r="B40" s="669"/>
       <c r="C40" s="224" t="s">
         <v>234</v>
       </c>
@@ -27627,7 +27661,7 @@
       <c r="A41" s="208">
         <v>34</v>
       </c>
-      <c r="B41" s="667"/>
+      <c r="B41" s="669"/>
       <c r="C41" s="227" t="s">
         <v>235</v>
       </c>
@@ -27659,7 +27693,7 @@
       <c r="A42" s="208">
         <v>35</v>
       </c>
-      <c r="B42" s="667"/>
+      <c r="B42" s="669"/>
       <c r="C42" s="227" t="s">
         <v>236</v>
       </c>
@@ -27691,7 +27725,7 @@
       <c r="A43" s="214">
         <v>36</v>
       </c>
-      <c r="B43" s="668"/>
+      <c r="B43" s="670"/>
       <c r="C43" s="234" t="s">
         <v>237</v>
       </c>
@@ -27819,13 +27853,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="669" t="s">
+      <c r="A6" s="671" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="656" t="s">
+      <c r="B6" s="658" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="656" t="s">
+      <c r="C6" s="658" t="s">
         <v>223</v>
       </c>
       <c r="D6" s="216" t="s">
@@ -27840,9 +27874,9 @@
       <c r="I6" s="218"/>
     </row>
     <row r="7" spans="1:14" ht="57.6" customHeight="1">
-      <c r="A7" s="670"/>
-      <c r="B7" s="655"/>
-      <c r="C7" s="657"/>
+      <c r="A7" s="672"/>
+      <c r="B7" s="657"/>
+      <c r="C7" s="659"/>
       <c r="D7" s="220" t="s">
         <v>224</v>
       </c>
@@ -27866,7 +27900,7 @@
       <c r="A8" s="242">
         <v>1</v>
       </c>
-      <c r="B8" s="666" t="s">
+      <c r="B8" s="668" t="s">
         <v>254</v>
       </c>
       <c r="C8" s="250" t="s">
@@ -27900,7 +27934,7 @@
       <c r="A9" s="245">
         <v>2</v>
       </c>
-      <c r="B9" s="675"/>
+      <c r="B9" s="677"/>
       <c r="C9" s="224" t="s">
         <v>240</v>
       </c>
@@ -27932,7 +27966,7 @@
       <c r="A10" s="245">
         <v>3</v>
       </c>
-      <c r="B10" s="675"/>
+      <c r="B10" s="677"/>
       <c r="C10" s="224" t="s">
         <v>228</v>
       </c>
@@ -27964,7 +27998,7 @@
       <c r="A11" s="245">
         <v>4</v>
       </c>
-      <c r="B11" s="675"/>
+      <c r="B11" s="677"/>
       <c r="C11" s="224" t="s">
         <v>229</v>
       </c>
@@ -27996,7 +28030,7 @@
       <c r="A12" s="245">
         <v>5</v>
       </c>
-      <c r="B12" s="675"/>
+      <c r="B12" s="677"/>
       <c r="C12" s="224" t="s">
         <v>230</v>
       </c>
@@ -28028,7 +28062,7 @@
       <c r="A13" s="245">
         <v>6</v>
       </c>
-      <c r="B13" s="675"/>
+      <c r="B13" s="677"/>
       <c r="C13" s="224" t="s">
         <v>231</v>
       </c>
@@ -28060,7 +28094,7 @@
       <c r="A14" s="245">
         <v>7</v>
       </c>
-      <c r="B14" s="675"/>
+      <c r="B14" s="677"/>
       <c r="C14" s="224" t="s">
         <v>232</v>
       </c>
@@ -28092,7 +28126,7 @@
       <c r="A15" s="245">
         <v>8</v>
       </c>
-      <c r="B15" s="675"/>
+      <c r="B15" s="677"/>
       <c r="C15" s="224" t="s">
         <v>233</v>
       </c>
@@ -28124,7 +28158,7 @@
       <c r="A16" s="245">
         <v>9</v>
       </c>
-      <c r="B16" s="675"/>
+      <c r="B16" s="677"/>
       <c r="C16" s="224" t="s">
         <v>234</v>
       </c>
@@ -28156,7 +28190,7 @@
       <c r="A17" s="245">
         <v>10</v>
       </c>
-      <c r="B17" s="675"/>
+      <c r="B17" s="677"/>
       <c r="C17" s="224" t="s">
         <v>235</v>
       </c>
@@ -28188,7 +28222,7 @@
       <c r="A18" s="245">
         <v>11</v>
       </c>
-      <c r="B18" s="675"/>
+      <c r="B18" s="677"/>
       <c r="C18" s="224" t="s">
         <v>236</v>
       </c>
@@ -28220,7 +28254,7 @@
       <c r="A19" s="248">
         <v>12</v>
       </c>
-      <c r="B19" s="676"/>
+      <c r="B19" s="678"/>
       <c r="C19" s="253" t="s">
         <v>237</v>
       </c>
@@ -28252,7 +28286,7 @@
       <c r="A20" s="242">
         <v>13</v>
       </c>
-      <c r="B20" s="666" t="s">
+      <c r="B20" s="668" t="s">
         <v>255</v>
       </c>
       <c r="C20" s="250" t="s">
@@ -28286,7 +28320,7 @@
       <c r="A21" s="245">
         <v>14</v>
       </c>
-      <c r="B21" s="675"/>
+      <c r="B21" s="677"/>
       <c r="C21" s="224" t="s">
         <v>241</v>
       </c>
@@ -28318,7 +28352,7 @@
       <c r="A22" s="245">
         <v>15</v>
       </c>
-      <c r="B22" s="675"/>
+      <c r="B22" s="677"/>
       <c r="C22" s="224" t="s">
         <v>228</v>
       </c>
@@ -28350,7 +28384,7 @@
       <c r="A23" s="245">
         <v>16</v>
       </c>
-      <c r="B23" s="675"/>
+      <c r="B23" s="677"/>
       <c r="C23" s="224" t="s">
         <v>229</v>
       </c>
@@ -28382,7 +28416,7 @@
       <c r="A24" s="245">
         <v>17</v>
       </c>
-      <c r="B24" s="675"/>
+      <c r="B24" s="677"/>
       <c r="C24" s="224" t="s">
         <v>230</v>
       </c>
@@ -28414,7 +28448,7 @@
       <c r="A25" s="245">
         <v>18</v>
       </c>
-      <c r="B25" s="675"/>
+      <c r="B25" s="677"/>
       <c r="C25" s="224" t="s">
         <v>231</v>
       </c>
@@ -28446,7 +28480,7 @@
       <c r="A26" s="245">
         <v>19</v>
       </c>
-      <c r="B26" s="675"/>
+      <c r="B26" s="677"/>
       <c r="C26" s="224" t="s">
         <v>232</v>
       </c>
@@ -28478,7 +28512,7 @@
       <c r="A27" s="245">
         <v>20</v>
       </c>
-      <c r="B27" s="675"/>
+      <c r="B27" s="677"/>
       <c r="C27" s="224" t="s">
         <v>233</v>
       </c>
@@ -28510,7 +28544,7 @@
       <c r="A28" s="245">
         <v>21</v>
       </c>
-      <c r="B28" s="675"/>
+      <c r="B28" s="677"/>
       <c r="C28" s="224" t="s">
         <v>234</v>
       </c>
@@ -28542,7 +28576,7 @@
       <c r="A29" s="245">
         <v>22</v>
       </c>
-      <c r="B29" s="675"/>
+      <c r="B29" s="677"/>
       <c r="C29" s="224" t="s">
         <v>235</v>
       </c>
@@ -28574,7 +28608,7 @@
       <c r="A30" s="245">
         <v>23</v>
       </c>
-      <c r="B30" s="675"/>
+      <c r="B30" s="677"/>
       <c r="C30" s="224" t="s">
         <v>236</v>
       </c>
@@ -28606,7 +28640,7 @@
       <c r="A31" s="248">
         <v>24</v>
       </c>
-      <c r="B31" s="676"/>
+      <c r="B31" s="678"/>
       <c r="C31" s="253" t="s">
         <v>237</v>
       </c>
@@ -28638,7 +28672,7 @@
       <c r="A32" s="249">
         <v>25</v>
       </c>
-      <c r="B32" s="666" t="s">
+      <c r="B32" s="668" t="s">
         <v>322</v>
       </c>
       <c r="C32" s="254" t="s">
@@ -28672,7 +28706,7 @@
       <c r="A33" s="245">
         <v>26</v>
       </c>
-      <c r="B33" s="675"/>
+      <c r="B33" s="677"/>
       <c r="C33" s="224" t="s">
         <v>242</v>
       </c>
@@ -28704,7 +28738,7 @@
       <c r="A34" s="245">
         <v>27</v>
       </c>
-      <c r="B34" s="675"/>
+      <c r="B34" s="677"/>
       <c r="C34" s="224" t="s">
         <v>228</v>
       </c>
@@ -28736,7 +28770,7 @@
       <c r="A35" s="245">
         <v>28</v>
       </c>
-      <c r="B35" s="675"/>
+      <c r="B35" s="677"/>
       <c r="C35" s="224" t="s">
         <v>229</v>
       </c>
@@ -28768,7 +28802,7 @@
       <c r="A36" s="245">
         <v>29</v>
       </c>
-      <c r="B36" s="675"/>
+      <c r="B36" s="677"/>
       <c r="C36" s="224" t="s">
         <v>230</v>
       </c>
@@ -28800,7 +28834,7 @@
       <c r="A37" s="245">
         <v>30</v>
       </c>
-      <c r="B37" s="675"/>
+      <c r="B37" s="677"/>
       <c r="C37" s="224" t="s">
         <v>231</v>
       </c>
@@ -28832,7 +28866,7 @@
       <c r="A38" s="245">
         <v>31</v>
       </c>
-      <c r="B38" s="675"/>
+      <c r="B38" s="677"/>
       <c r="C38" s="224" t="s">
         <v>232</v>
       </c>
@@ -28864,7 +28898,7 @@
       <c r="A39" s="245">
         <v>32</v>
       </c>
-      <c r="B39" s="675"/>
+      <c r="B39" s="677"/>
       <c r="C39" s="224" t="s">
         <v>233</v>
       </c>
@@ -28896,7 +28930,7 @@
       <c r="A40" s="245">
         <v>33</v>
       </c>
-      <c r="B40" s="675"/>
+      <c r="B40" s="677"/>
       <c r="C40" s="224" t="s">
         <v>234</v>
       </c>
@@ -28928,7 +28962,7 @@
       <c r="A41" s="245">
         <v>34</v>
       </c>
-      <c r="B41" s="675"/>
+      <c r="B41" s="677"/>
       <c r="C41" s="224" t="s">
         <v>235</v>
       </c>
@@ -28960,7 +28994,7 @@
       <c r="A42" s="245">
         <v>35</v>
       </c>
-      <c r="B42" s="675"/>
+      <c r="B42" s="677"/>
       <c r="C42" s="224" t="s">
         <v>236</v>
       </c>
@@ -28992,7 +29026,7 @@
       <c r="A43" s="248">
         <v>36</v>
       </c>
-      <c r="B43" s="676"/>
+      <c r="B43" s="678"/>
       <c r="C43" s="253" t="s">
         <v>237</v>
       </c>
@@ -29024,7 +29058,7 @@
       <c r="A44" s="242">
         <v>37</v>
       </c>
-      <c r="B44" s="666" t="s">
+      <c r="B44" s="668" t="s">
         <v>323</v>
       </c>
       <c r="C44" s="250" t="s">
@@ -29058,7 +29092,7 @@
       <c r="A45" s="245">
         <v>38</v>
       </c>
-      <c r="B45" s="675"/>
+      <c r="B45" s="677"/>
       <c r="C45" s="224" t="s">
         <v>238</v>
       </c>
@@ -29090,7 +29124,7 @@
       <c r="A46" s="245">
         <v>39</v>
       </c>
-      <c r="B46" s="675"/>
+      <c r="B46" s="677"/>
       <c r="C46" s="224" t="s">
         <v>228</v>
       </c>
@@ -29122,7 +29156,7 @@
       <c r="A47" s="245">
         <v>40</v>
       </c>
-      <c r="B47" s="675"/>
+      <c r="B47" s="677"/>
       <c r="C47" s="224" t="s">
         <v>229</v>
       </c>
@@ -29154,7 +29188,7 @@
       <c r="A48" s="245">
         <v>41</v>
       </c>
-      <c r="B48" s="675"/>
+      <c r="B48" s="677"/>
       <c r="C48" s="224" t="s">
         <v>230</v>
       </c>
@@ -29186,7 +29220,7 @@
       <c r="A49" s="245">
         <v>42</v>
       </c>
-      <c r="B49" s="675"/>
+      <c r="B49" s="677"/>
       <c r="C49" s="224" t="s">
         <v>231</v>
       </c>
@@ -29218,7 +29252,7 @@
       <c r="A50" s="245">
         <v>43</v>
       </c>
-      <c r="B50" s="675"/>
+      <c r="B50" s="677"/>
       <c r="C50" s="224" t="s">
         <v>232</v>
       </c>
@@ -29250,7 +29284,7 @@
       <c r="A51" s="245">
         <v>44</v>
       </c>
-      <c r="B51" s="675"/>
+      <c r="B51" s="677"/>
       <c r="C51" s="224" t="s">
         <v>233</v>
       </c>
@@ -29282,7 +29316,7 @@
       <c r="A52" s="245">
         <v>45</v>
       </c>
-      <c r="B52" s="675"/>
+      <c r="B52" s="677"/>
       <c r="C52" s="224" t="s">
         <v>234</v>
       </c>
@@ -29314,7 +29348,7 @@
       <c r="A53" s="245">
         <v>46</v>
       </c>
-      <c r="B53" s="675"/>
+      <c r="B53" s="677"/>
       <c r="C53" s="224" t="s">
         <v>235</v>
       </c>
@@ -29346,7 +29380,7 @@
       <c r="A54" s="245">
         <v>47</v>
       </c>
-      <c r="B54" s="675"/>
+      <c r="B54" s="677"/>
       <c r="C54" s="224" t="s">
         <v>236</v>
       </c>
@@ -29378,7 +29412,7 @@
       <c r="A55" s="248">
         <v>48</v>
       </c>
-      <c r="B55" s="676"/>
+      <c r="B55" s="678"/>
       <c r="C55" s="253" t="s">
         <v>237</v>
       </c>
@@ -29552,13 +29586,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="22.15" customHeight="1">
-      <c r="A6" s="669" t="s">
+      <c r="A6" s="671" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="656" t="s">
+      <c r="B6" s="658" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="656" t="s">
+      <c r="C6" s="658" t="s">
         <v>223</v>
       </c>
       <c r="D6" s="216" t="s">
@@ -29573,9 +29607,9 @@
       <c r="I6" s="218"/>
     </row>
     <row r="7" spans="1:14" ht="62.45" customHeight="1">
-      <c r="A7" s="670"/>
-      <c r="B7" s="655"/>
-      <c r="C7" s="657"/>
+      <c r="A7" s="672"/>
+      <c r="B7" s="657"/>
+      <c r="C7" s="659"/>
       <c r="D7" s="220" t="s">
         <v>224</v>
       </c>
@@ -29599,7 +29633,7 @@
       <c r="A8" s="204">
         <v>1</v>
       </c>
-      <c r="B8" s="666" t="s">
+      <c r="B8" s="668" t="s">
         <v>324</v>
       </c>
       <c r="C8" s="221" t="s">
@@ -29633,7 +29667,7 @@
       <c r="A9" s="208">
         <v>2</v>
       </c>
-      <c r="B9" s="667"/>
+      <c r="B9" s="669"/>
       <c r="C9" s="224" t="s">
         <v>243</v>
       </c>
@@ -29665,7 +29699,7 @@
       <c r="A10" s="208">
         <v>3</v>
       </c>
-      <c r="B10" s="667"/>
+      <c r="B10" s="669"/>
       <c r="C10" s="227" t="s">
         <v>228</v>
       </c>
@@ -29697,7 +29731,7 @@
       <c r="A11" s="208">
         <v>4</v>
       </c>
-      <c r="B11" s="667"/>
+      <c r="B11" s="669"/>
       <c r="C11" s="224" t="s">
         <v>229</v>
       </c>
@@ -29729,7 +29763,7 @@
       <c r="A12" s="208">
         <v>5</v>
       </c>
-      <c r="B12" s="667"/>
+      <c r="B12" s="669"/>
       <c r="C12" s="224" t="s">
         <v>230</v>
       </c>
@@ -29761,7 +29795,7 @@
       <c r="A13" s="208">
         <v>6</v>
       </c>
-      <c r="B13" s="667"/>
+      <c r="B13" s="669"/>
       <c r="C13" s="224" t="s">
         <v>231</v>
       </c>
@@ -29793,7 +29827,7 @@
       <c r="A14" s="208">
         <v>7</v>
       </c>
-      <c r="B14" s="667"/>
+      <c r="B14" s="669"/>
       <c r="C14" s="224" t="s">
         <v>232</v>
       </c>
@@ -29825,7 +29859,7 @@
       <c r="A15" s="208">
         <v>8</v>
       </c>
-      <c r="B15" s="667"/>
+      <c r="B15" s="669"/>
       <c r="C15" s="224" t="s">
         <v>233</v>
       </c>
@@ -29857,7 +29891,7 @@
       <c r="A16" s="208">
         <v>9</v>
       </c>
-      <c r="B16" s="667"/>
+      <c r="B16" s="669"/>
       <c r="C16" s="224" t="s">
         <v>234</v>
       </c>
@@ -29889,7 +29923,7 @@
       <c r="A17" s="208">
         <v>10</v>
       </c>
-      <c r="B17" s="667"/>
+      <c r="B17" s="669"/>
       <c r="C17" s="227" t="s">
         <v>235</v>
       </c>
@@ -29921,7 +29955,7 @@
       <c r="A18" s="208">
         <v>11</v>
       </c>
-      <c r="B18" s="667"/>
+      <c r="B18" s="669"/>
       <c r="C18" s="227" t="s">
         <v>236</v>
       </c>
@@ -29953,7 +29987,7 @@
       <c r="A19" s="214">
         <v>12</v>
       </c>
-      <c r="B19" s="668"/>
+      <c r="B19" s="670"/>
       <c r="C19" s="255" t="s">
         <v>237</v>
       </c>
@@ -29985,7 +30019,7 @@
       <c r="A20" s="204">
         <v>13</v>
       </c>
-      <c r="B20" s="666" t="s">
+      <c r="B20" s="668" t="s">
         <v>325</v>
       </c>
       <c r="C20" s="221" t="s">
@@ -30019,7 +30053,7 @@
       <c r="A21" s="208">
         <v>14</v>
       </c>
-      <c r="B21" s="667"/>
+      <c r="B21" s="669"/>
       <c r="C21" s="224" t="s">
         <v>243</v>
       </c>
@@ -30051,7 +30085,7 @@
       <c r="A22" s="208">
         <v>15</v>
       </c>
-      <c r="B22" s="667"/>
+      <c r="B22" s="669"/>
       <c r="C22" s="227" t="s">
         <v>228</v>
       </c>
@@ -30083,7 +30117,7 @@
       <c r="A23" s="208">
         <v>16</v>
       </c>
-      <c r="B23" s="667"/>
+      <c r="B23" s="669"/>
       <c r="C23" s="224" t="s">
         <v>229</v>
       </c>
@@ -30115,7 +30149,7 @@
       <c r="A24" s="208">
         <v>17</v>
       </c>
-      <c r="B24" s="667"/>
+      <c r="B24" s="669"/>
       <c r="C24" s="224" t="s">
         <v>230</v>
       </c>
@@ -30147,7 +30181,7 @@
       <c r="A25" s="208">
         <v>18</v>
       </c>
-      <c r="B25" s="667"/>
+      <c r="B25" s="669"/>
       <c r="C25" s="224" t="s">
         <v>231</v>
       </c>
@@ -30179,7 +30213,7 @@
       <c r="A26" s="208">
         <v>19</v>
       </c>
-      <c r="B26" s="667"/>
+      <c r="B26" s="669"/>
       <c r="C26" s="224" t="s">
         <v>232</v>
       </c>
@@ -30211,7 +30245,7 @@
       <c r="A27" s="208">
         <v>20</v>
       </c>
-      <c r="B27" s="667"/>
+      <c r="B27" s="669"/>
       <c r="C27" s="224" t="s">
         <v>233</v>
       </c>
@@ -30243,7 +30277,7 @@
       <c r="A28" s="208">
         <v>21</v>
       </c>
-      <c r="B28" s="667"/>
+      <c r="B28" s="669"/>
       <c r="C28" s="224" t="s">
         <v>234</v>
       </c>
@@ -30275,7 +30309,7 @@
       <c r="A29" s="208">
         <v>22</v>
       </c>
-      <c r="B29" s="667"/>
+      <c r="B29" s="669"/>
       <c r="C29" s="227" t="s">
         <v>235</v>
       </c>
@@ -30307,7 +30341,7 @@
       <c r="A30" s="208">
         <v>23</v>
       </c>
-      <c r="B30" s="667"/>
+      <c r="B30" s="669"/>
       <c r="C30" s="227" t="s">
         <v>236</v>
       </c>
@@ -30339,7 +30373,7 @@
       <c r="A31" s="214">
         <v>24</v>
       </c>
-      <c r="B31" s="668"/>
+      <c r="B31" s="670"/>
       <c r="C31" s="255" t="s">
         <v>237</v>
       </c>
@@ -30488,10 +30522,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="677" t="s">
+      <c r="A5" s="679" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="679" t="s">
+      <c r="B5" s="681" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="256" t="s">
@@ -30502,8 +30536,8 @@
       <c r="F5" s="258"/>
     </row>
     <row r="6" spans="1:6" ht="39" customHeight="1">
-      <c r="A6" s="678"/>
-      <c r="B6" s="600"/>
+      <c r="A6" s="680"/>
+      <c r="B6" s="602"/>
       <c r="C6" s="124" t="s">
         <v>40</v>
       </c>
@@ -32062,13 +32096,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1">
-      <c r="A5" s="669" t="s">
+      <c r="A5" s="671" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="656" t="s">
+      <c r="B5" s="658" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="656" t="s">
+      <c r="C5" s="658" t="s">
         <v>151</v>
       </c>
       <c r="D5" s="216" t="s">
@@ -32083,9 +32117,9 @@
       <c r="I5" s="218"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1">
-      <c r="A6" s="683"/>
-      <c r="B6" s="684"/>
-      <c r="C6" s="684"/>
+      <c r="A6" s="685"/>
+      <c r="B6" s="686"/>
+      <c r="C6" s="686"/>
       <c r="D6" s="216" t="s">
         <v>50</v>
       </c>
@@ -32098,9 +32132,9 @@
       <c r="I6" s="424"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1">
-      <c r="A7" s="670"/>
-      <c r="B7" s="657"/>
-      <c r="C7" s="657"/>
+      <c r="A7" s="672"/>
+      <c r="B7" s="659"/>
+      <c r="C7" s="659"/>
       <c r="D7" s="425">
         <v>2024</v>
       </c>
@@ -32124,7 +32158,7 @@
       <c r="A8" s="427">
         <v>1</v>
       </c>
-      <c r="B8" s="680" t="s">
+      <c r="B8" s="682" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="237" t="s">
@@ -32157,7 +32191,7 @@
       <c r="A9" s="208">
         <v>2</v>
       </c>
-      <c r="B9" s="685"/>
+      <c r="B9" s="687"/>
       <c r="C9" s="224" t="s">
         <v>154</v>
       </c>
@@ -32188,7 +32222,7 @@
       <c r="A10" s="208">
         <v>3</v>
       </c>
-      <c r="B10" s="685"/>
+      <c r="B10" s="687"/>
       <c r="C10" s="227" t="s">
         <v>155</v>
       </c>
@@ -32219,7 +32253,7 @@
       <c r="A11" s="208">
         <v>4</v>
       </c>
-      <c r="B11" s="685"/>
+      <c r="B11" s="687"/>
       <c r="C11" s="227" t="s">
         <v>156</v>
       </c>
@@ -32250,7 +32284,7 @@
       <c r="A12" s="208">
         <v>5</v>
       </c>
-      <c r="B12" s="685"/>
+      <c r="B12" s="687"/>
       <c r="C12" s="227" t="s">
         <v>157</v>
       </c>
@@ -32281,7 +32315,7 @@
       <c r="A13" s="208">
         <v>6</v>
       </c>
-      <c r="B13" s="685"/>
+      <c r="B13" s="687"/>
       <c r="C13" s="227" t="s">
         <v>158</v>
       </c>
@@ -32312,7 +32346,7 @@
       <c r="A14" s="208">
         <v>7</v>
       </c>
-      <c r="B14" s="685"/>
+      <c r="B14" s="687"/>
       <c r="C14" s="227" t="s">
         <v>159</v>
       </c>
@@ -32343,7 +32377,7 @@
       <c r="A15" s="208">
         <v>8</v>
       </c>
-      <c r="B15" s="685"/>
+      <c r="B15" s="687"/>
       <c r="C15" s="227" t="s">
         <v>160</v>
       </c>
@@ -32374,7 +32408,7 @@
       <c r="A16" s="208">
         <v>9</v>
       </c>
-      <c r="B16" s="685"/>
+      <c r="B16" s="687"/>
       <c r="C16" s="227" t="s">
         <v>161</v>
       </c>
@@ -32405,7 +32439,7 @@
       <c r="A17" s="214">
         <v>10</v>
       </c>
-      <c r="B17" s="686"/>
+      <c r="B17" s="688"/>
       <c r="C17" s="255" t="s">
         <v>162</v>
       </c>
@@ -32436,7 +32470,7 @@
       <c r="A18" s="427">
         <v>11</v>
       </c>
-      <c r="B18" s="680" t="s">
+      <c r="B18" s="682" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="237" t="s">
@@ -32469,7 +32503,7 @@
       <c r="A19" s="208">
         <v>12</v>
       </c>
-      <c r="B19" s="685"/>
+      <c r="B19" s="687"/>
       <c r="C19" s="224" t="s">
         <v>154</v>
       </c>
@@ -32500,7 +32534,7 @@
       <c r="A20" s="208">
         <v>13</v>
       </c>
-      <c r="B20" s="685"/>
+      <c r="B20" s="687"/>
       <c r="C20" s="227" t="s">
         <v>155</v>
       </c>
@@ -32531,7 +32565,7 @@
       <c r="A21" s="208">
         <v>14</v>
       </c>
-      <c r="B21" s="685"/>
+      <c r="B21" s="687"/>
       <c r="C21" s="227" t="s">
         <v>156</v>
       </c>
@@ -32562,7 +32596,7 @@
       <c r="A22" s="208">
         <v>15</v>
       </c>
-      <c r="B22" s="685"/>
+      <c r="B22" s="687"/>
       <c r="C22" s="227" t="s">
         <v>157</v>
       </c>
@@ -32593,7 +32627,7 @@
       <c r="A23" s="208">
         <v>16</v>
       </c>
-      <c r="B23" s="685"/>
+      <c r="B23" s="687"/>
       <c r="C23" s="227" t="s">
         <v>158</v>
       </c>
@@ -32624,7 +32658,7 @@
       <c r="A24" s="208">
         <v>17</v>
       </c>
-      <c r="B24" s="685"/>
+      <c r="B24" s="687"/>
       <c r="C24" s="227" t="s">
         <v>159</v>
       </c>
@@ -32655,7 +32689,7 @@
       <c r="A25" s="208">
         <v>18</v>
       </c>
-      <c r="B25" s="685"/>
+      <c r="B25" s="687"/>
       <c r="C25" s="227" t="s">
         <v>160</v>
       </c>
@@ -32686,7 +32720,7 @@
       <c r="A26" s="208">
         <v>19</v>
       </c>
-      <c r="B26" s="685"/>
+      <c r="B26" s="687"/>
       <c r="C26" s="227" t="s">
         <v>161</v>
       </c>
@@ -32717,7 +32751,7 @@
       <c r="A27" s="214">
         <v>20</v>
       </c>
-      <c r="B27" s="686"/>
+      <c r="B27" s="688"/>
       <c r="C27" s="255" t="s">
         <v>162</v>
       </c>
@@ -32748,7 +32782,7 @@
       <c r="A28" s="204">
         <v>21</v>
       </c>
-      <c r="B28" s="680" t="s">
+      <c r="B28" s="682" t="s">
         <v>304</v>
       </c>
       <c r="C28" s="221" t="s">
@@ -32781,7 +32815,7 @@
       <c r="A29" s="208">
         <v>22</v>
       </c>
-      <c r="B29" s="681"/>
+      <c r="B29" s="683"/>
       <c r="C29" s="224" t="s">
         <v>154</v>
       </c>
@@ -32812,7 +32846,7 @@
       <c r="A30" s="208">
         <v>23</v>
       </c>
-      <c r="B30" s="681"/>
+      <c r="B30" s="683"/>
       <c r="C30" s="227" t="s">
         <v>155</v>
       </c>
@@ -32843,7 +32877,7 @@
       <c r="A31" s="208">
         <v>24</v>
       </c>
-      <c r="B31" s="681"/>
+      <c r="B31" s="683"/>
       <c r="C31" s="227" t="s">
         <v>156</v>
       </c>
@@ -32874,7 +32908,7 @@
       <c r="A32" s="208">
         <v>25</v>
       </c>
-      <c r="B32" s="681"/>
+      <c r="B32" s="683"/>
       <c r="C32" s="227" t="s">
         <v>157</v>
       </c>
@@ -32905,7 +32939,7 @@
       <c r="A33" s="208">
         <v>26</v>
       </c>
-      <c r="B33" s="681"/>
+      <c r="B33" s="683"/>
       <c r="C33" s="227" t="s">
         <v>158</v>
       </c>
@@ -32936,7 +32970,7 @@
       <c r="A34" s="208">
         <v>27</v>
       </c>
-      <c r="B34" s="681"/>
+      <c r="B34" s="683"/>
       <c r="C34" s="227" t="s">
         <v>159</v>
       </c>
@@ -32967,7 +33001,7 @@
       <c r="A35" s="208">
         <v>28</v>
       </c>
-      <c r="B35" s="681"/>
+      <c r="B35" s="683"/>
       <c r="C35" s="227" t="s">
         <v>160</v>
       </c>
@@ -32998,7 +33032,7 @@
       <c r="A36" s="214">
         <v>29</v>
       </c>
-      <c r="B36" s="682"/>
+      <c r="B36" s="684"/>
       <c r="C36" s="255" t="s">
         <v>161</v>
       </c>
@@ -33029,7 +33063,7 @@
       <c r="A37" s="427">
         <v>30</v>
       </c>
-      <c r="B37" s="681" t="s">
+      <c r="B37" s="683" t="s">
         <v>305</v>
       </c>
       <c r="C37" s="237" t="s">
@@ -33062,7 +33096,7 @@
       <c r="A38" s="208">
         <v>31</v>
       </c>
-      <c r="B38" s="681"/>
+      <c r="B38" s="683"/>
       <c r="C38" s="224" t="s">
         <v>154</v>
       </c>
@@ -33093,7 +33127,7 @@
       <c r="A39" s="208">
         <v>32</v>
       </c>
-      <c r="B39" s="681"/>
+      <c r="B39" s="683"/>
       <c r="C39" s="227" t="s">
         <v>155</v>
       </c>
@@ -33124,7 +33158,7 @@
       <c r="A40" s="208">
         <v>33</v>
       </c>
-      <c r="B40" s="681"/>
+      <c r="B40" s="683"/>
       <c r="C40" s="227" t="s">
         <v>156</v>
       </c>
@@ -33155,7 +33189,7 @@
       <c r="A41" s="208">
         <v>34</v>
       </c>
-      <c r="B41" s="681"/>
+      <c r="B41" s="683"/>
       <c r="C41" s="227" t="s">
         <v>157</v>
       </c>
@@ -33186,7 +33220,7 @@
       <c r="A42" s="208">
         <v>35</v>
       </c>
-      <c r="B42" s="681"/>
+      <c r="B42" s="683"/>
       <c r="C42" s="227" t="s">
         <v>158</v>
       </c>
@@ -33217,7 +33251,7 @@
       <c r="A43" s="208">
         <v>36</v>
       </c>
-      <c r="B43" s="681"/>
+      <c r="B43" s="683"/>
       <c r="C43" s="227" t="s">
         <v>159</v>
       </c>
@@ -33248,7 +33282,7 @@
       <c r="A44" s="208">
         <v>37</v>
       </c>
-      <c r="B44" s="681"/>
+      <c r="B44" s="683"/>
       <c r="C44" s="227" t="s">
         <v>160</v>
       </c>
@@ -33279,7 +33313,7 @@
       <c r="A45" s="208">
         <v>38</v>
       </c>
-      <c r="B45" s="681"/>
+      <c r="B45" s="683"/>
       <c r="C45" s="227" t="s">
         <v>161</v>
       </c>
@@ -33310,7 +33344,7 @@
       <c r="A46" s="204">
         <v>39</v>
       </c>
-      <c r="B46" s="680" t="s">
+      <c r="B46" s="682" t="s">
         <v>339</v>
       </c>
       <c r="C46" s="221" t="s">
@@ -33343,7 +33377,7 @@
       <c r="A47" s="208">
         <v>40</v>
       </c>
-      <c r="B47" s="681"/>
+      <c r="B47" s="683"/>
       <c r="C47" s="227" t="s">
         <v>154</v>
       </c>
@@ -33374,7 +33408,7 @@
       <c r="A48" s="208">
         <v>41</v>
       </c>
-      <c r="B48" s="681"/>
+      <c r="B48" s="683"/>
       <c r="C48" s="227" t="s">
         <v>155</v>
       </c>
@@ -33405,7 +33439,7 @@
       <c r="A49" s="208">
         <v>42</v>
       </c>
-      <c r="B49" s="681"/>
+      <c r="B49" s="683"/>
       <c r="C49" s="227" t="s">
         <v>156</v>
       </c>
@@ -33436,7 +33470,7 @@
       <c r="A50" s="208">
         <v>43</v>
       </c>
-      <c r="B50" s="681"/>
+      <c r="B50" s="683"/>
       <c r="C50" s="227" t="s">
         <v>157</v>
       </c>
@@ -33467,7 +33501,7 @@
       <c r="A51" s="208">
         <v>44</v>
       </c>
-      <c r="B51" s="681"/>
+      <c r="B51" s="683"/>
       <c r="C51" s="227" t="s">
         <v>158</v>
       </c>
@@ -33498,7 +33532,7 @@
       <c r="A52" s="208">
         <v>45</v>
       </c>
-      <c r="B52" s="681"/>
+      <c r="B52" s="683"/>
       <c r="C52" s="227" t="s">
         <v>159</v>
       </c>
@@ -33529,7 +33563,7 @@
       <c r="A53" s="208">
         <v>46</v>
       </c>
-      <c r="B53" s="681"/>
+      <c r="B53" s="683"/>
       <c r="C53" s="227" t="s">
         <v>160</v>
       </c>
@@ -33560,7 +33594,7 @@
       <c r="A54" s="214">
         <v>47</v>
       </c>
-      <c r="B54" s="682"/>
+      <c r="B54" s="684"/>
       <c r="C54" s="255" t="s">
         <v>161</v>
       </c>
@@ -33591,7 +33625,7 @@
       <c r="A55" s="427">
         <v>48</v>
       </c>
-      <c r="B55" s="680" t="s">
+      <c r="B55" s="682" t="s">
         <v>306</v>
       </c>
       <c r="C55" s="237" t="s">
@@ -33624,7 +33658,7 @@
       <c r="A56" s="208">
         <v>49</v>
       </c>
-      <c r="B56" s="681"/>
+      <c r="B56" s="683"/>
       <c r="C56" s="224" t="s">
         <v>154</v>
       </c>
@@ -33655,7 +33689,7 @@
       <c r="A57" s="208">
         <v>50</v>
       </c>
-      <c r="B57" s="681"/>
+      <c r="B57" s="683"/>
       <c r="C57" s="227" t="s">
         <v>155</v>
       </c>
@@ -33686,7 +33720,7 @@
       <c r="A58" s="208">
         <v>51</v>
       </c>
-      <c r="B58" s="681"/>
+      <c r="B58" s="683"/>
       <c r="C58" s="227" t="s">
         <v>156</v>
       </c>
@@ -33717,7 +33751,7 @@
       <c r="A59" s="208">
         <v>52</v>
       </c>
-      <c r="B59" s="681"/>
+      <c r="B59" s="683"/>
       <c r="C59" s="227" t="s">
         <v>157</v>
       </c>
@@ -33748,7 +33782,7 @@
       <c r="A60" s="208">
         <v>53</v>
       </c>
-      <c r="B60" s="681"/>
+      <c r="B60" s="683"/>
       <c r="C60" s="227" t="s">
         <v>158</v>
       </c>
@@ -33779,7 +33813,7 @@
       <c r="A61" s="208">
         <v>54</v>
       </c>
-      <c r="B61" s="681"/>
+      <c r="B61" s="683"/>
       <c r="C61" s="227" t="s">
         <v>159</v>
       </c>
@@ -33810,7 +33844,7 @@
       <c r="A62" s="208">
         <v>55</v>
       </c>
-      <c r="B62" s="681"/>
+      <c r="B62" s="683"/>
       <c r="C62" s="227" t="s">
         <v>160</v>
       </c>
@@ -33841,7 +33875,7 @@
       <c r="A63" s="214">
         <v>56</v>
       </c>
-      <c r="B63" s="682"/>
+      <c r="B63" s="684"/>
       <c r="C63" s="255" t="s">
         <v>161</v>
       </c>
@@ -34009,17 +34043,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="687" t="s">
+      <c r="A5" s="689" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="690" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="693" t="s">
+      <c r="B5" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="695" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="694"/>
-      <c r="E5" s="695"/>
+      <c r="D5" s="696"/>
+      <c r="E5" s="697"/>
       <c r="F5" s="505" t="s">
         <v>166</v>
       </c>
@@ -34030,11 +34064,11 @@
       <c r="K5" s="506"/>
     </row>
     <row r="6" spans="1:11" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="688"/>
-      <c r="B6" s="691"/>
-      <c r="C6" s="696"/>
-      <c r="D6" s="697"/>
-      <c r="E6" s="698"/>
+      <c r="A6" s="690"/>
+      <c r="B6" s="693"/>
+      <c r="C6" s="698"/>
+      <c r="D6" s="699"/>
+      <c r="E6" s="700"/>
       <c r="F6" s="507" t="s">
         <v>5</v>
       </c>
@@ -34047,8 +34081,8 @@
       <c r="K6" s="511"/>
     </row>
     <row r="7" spans="1:11" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="689"/>
-      <c r="B7" s="692"/>
+      <c r="A7" s="691"/>
+      <c r="B7" s="694"/>
       <c r="C7" s="512" t="s">
         <v>73</v>
       </c>
@@ -34668,13 +34702,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
-      <c r="A5" s="703" t="s">
+      <c r="A5" s="705" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="701" t="s">
+      <c r="B5" s="703" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="607"/>
+      <c r="C5" s="603"/>
       <c r="D5" s="326" t="s">
         <v>168</v>
       </c>
@@ -34682,9 +34716,9 @@
       <c r="F5" s="299"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A6" s="633"/>
-      <c r="B6" s="702"/>
-      <c r="C6" s="608"/>
+      <c r="A6" s="635"/>
+      <c r="B6" s="704"/>
+      <c r="C6" s="604"/>
       <c r="D6" s="123" t="s">
         <v>3</v>
       </c>
@@ -34699,10 +34733,10 @@
       <c r="A7" s="74">
         <v>1</v>
       </c>
-      <c r="B7" s="704" t="s">
+      <c r="B7" s="706" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="705"/>
+      <c r="C7" s="707"/>
       <c r="D7" s="300">
         <v>2398</v>
       </c>
@@ -34717,10 +34751,10 @@
       <c r="A8" s="75">
         <v>2</v>
       </c>
-      <c r="B8" s="706" t="s">
+      <c r="B8" s="708" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="707"/>
+      <c r="C8" s="709"/>
       <c r="D8" s="302">
         <v>692</v>
       </c>
@@ -34736,7 +34770,7 @@
       <c r="A9" s="75">
         <v>3</v>
       </c>
-      <c r="B9" s="604" t="s">
+      <c r="B9" s="599" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="304" t="s">
@@ -34756,7 +34790,7 @@
       <c r="A10" s="75">
         <v>4</v>
       </c>
-      <c r="B10" s="604"/>
+      <c r="B10" s="599"/>
       <c r="C10" s="304" t="s">
         <v>196</v>
       </c>
@@ -34774,7 +34808,7 @@
       <c r="A11" s="76">
         <v>5</v>
       </c>
-      <c r="B11" s="604"/>
+      <c r="B11" s="599"/>
       <c r="C11" s="307" t="s">
         <v>171</v>
       </c>
@@ -34792,10 +34826,10 @@
       <c r="A12" s="78">
         <v>6</v>
       </c>
-      <c r="B12" s="699" t="s">
+      <c r="B12" s="701" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="700"/>
+      <c r="C12" s="702"/>
       <c r="D12" s="308">
         <v>2299</v>
       </c>
@@ -34874,15 +34908,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="708" t="s">
+      <c r="A5" s="710" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="701" t="s">
+      <c r="B5" s="703" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="710"/>
-      <c r="D5" s="710"/>
-      <c r="E5" s="607"/>
+      <c r="C5" s="712"/>
+      <c r="D5" s="712"/>
+      <c r="E5" s="603"/>
       <c r="F5" s="46" t="s">
         <v>173</v>
       </c>
@@ -34890,11 +34924,11 @@
       <c r="H5" s="297"/>
     </row>
     <row r="6" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A6" s="709"/>
-      <c r="B6" s="702"/>
-      <c r="C6" s="711"/>
-      <c r="D6" s="711"/>
-      <c r="E6" s="608"/>
+      <c r="A6" s="711"/>
+      <c r="B6" s="704"/>
+      <c r="C6" s="713"/>
+      <c r="D6" s="713"/>
+      <c r="E6" s="604"/>
       <c r="F6" s="108" t="s">
         <v>3</v>
       </c>
@@ -34909,12 +34943,12 @@
       <c r="A7" s="74">
         <v>1</v>
       </c>
-      <c r="B7" s="718" t="s">
+      <c r="B7" s="720" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="719"/>
-      <c r="D7" s="719"/>
-      <c r="E7" s="720"/>
+      <c r="C7" s="721"/>
+      <c r="D7" s="721"/>
+      <c r="E7" s="722"/>
       <c r="F7" s="300">
         <v>170</v>
       </c>
@@ -34929,12 +34963,12 @@
       <c r="A8" s="75">
         <v>2</v>
       </c>
-      <c r="B8" s="706" t="s">
+      <c r="B8" s="708" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="721"/>
-      <c r="D8" s="721"/>
-      <c r="E8" s="707"/>
+      <c r="C8" s="723"/>
+      <c r="D8" s="723"/>
+      <c r="E8" s="709"/>
       <c r="F8" s="302">
         <v>723</v>
       </c>
@@ -34952,16 +34986,16 @@
       <c r="A9" s="75">
         <v>3</v>
       </c>
-      <c r="B9" s="715" t="s">
+      <c r="B9" s="717" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="715" t="s">
+      <c r="C9" s="717" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="312" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="713" t="s">
+      <c r="E9" s="715" t="s">
         <v>178</v>
       </c>
       <c r="F9" s="309">
@@ -34978,12 +35012,12 @@
       <c r="A10" s="75">
         <v>4</v>
       </c>
-      <c r="B10" s="716"/>
-      <c r="C10" s="725"/>
+      <c r="B10" s="718"/>
+      <c r="C10" s="727"/>
       <c r="D10" s="312" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="714"/>
+      <c r="E10" s="716"/>
       <c r="F10" s="305">
         <v>129</v>
       </c>
@@ -34998,12 +35032,12 @@
       <c r="A11" s="75">
         <v>5</v>
       </c>
-      <c r="B11" s="716"/>
-      <c r="C11" s="718" t="s">
+      <c r="B11" s="718"/>
+      <c r="C11" s="720" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="723"/>
-      <c r="E11" s="724"/>
+      <c r="D11" s="725"/>
+      <c r="E11" s="726"/>
       <c r="F11" s="305">
         <v>6</v>
       </c>
@@ -35018,12 +35052,12 @@
       <c r="A12" s="75">
         <v>6</v>
       </c>
-      <c r="B12" s="716"/>
-      <c r="C12" s="706" t="s">
+      <c r="B12" s="718"/>
+      <c r="C12" s="708" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="721"/>
-      <c r="E12" s="707"/>
+      <c r="D12" s="723"/>
+      <c r="E12" s="709"/>
       <c r="F12" s="305">
         <v>1</v>
       </c>
@@ -35038,12 +35072,12 @@
       <c r="A13" s="76">
         <v>7</v>
       </c>
-      <c r="B13" s="717"/>
-      <c r="C13" s="722" t="s">
+      <c r="B13" s="719"/>
+      <c r="C13" s="724" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="719"/>
-      <c r="E13" s="720"/>
+      <c r="D13" s="721"/>
+      <c r="E13" s="722"/>
       <c r="F13" s="305">
         <v>3</v>
       </c>
@@ -35058,12 +35092,12 @@
       <c r="A14" s="78">
         <v>8</v>
       </c>
-      <c r="B14" s="699" t="s">
+      <c r="B14" s="701" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="712"/>
-      <c r="D14" s="712"/>
-      <c r="E14" s="700"/>
+      <c r="C14" s="714"/>
+      <c r="D14" s="714"/>
+      <c r="E14" s="702"/>
       <c r="F14" s="308">
         <v>221</v>
       </c>
@@ -36779,44 +36813,44 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A6" s="609" t="s">
+      <c r="A6" s="606" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="605" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="607" t="s">
+      <c r="C6" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="599" t="s">
+      <c r="D6" s="605" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="597" t="s">
+      <c r="E6" s="608" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="598"/>
-      <c r="G6" s="599" t="s">
+      <c r="F6" s="609"/>
+      <c r="G6" s="605" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1">
-      <c r="A7" s="610"/>
-      <c r="B7" s="605"/>
-      <c r="C7" s="608"/>
-      <c r="D7" s="600"/>
+      <c r="A7" s="607"/>
+      <c r="B7" s="600"/>
+      <c r="C7" s="604"/>
+      <c r="D7" s="602"/>
       <c r="E7" s="329" t="s">
         <v>277</v>
       </c>
       <c r="F7" s="330" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="600"/>
+      <c r="G7" s="602"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="343">
         <v>1</v>
       </c>
-      <c r="B8" s="601" t="s">
+      <c r="B8" s="610" t="s">
         <v>224</v>
       </c>
       <c r="C8" s="344">
@@ -36839,7 +36873,7 @@
       <c r="A9" s="331">
         <v>2</v>
       </c>
-      <c r="B9" s="602"/>
+      <c r="B9" s="611"/>
       <c r="C9" s="341">
         <f>C8+1</f>
         <v>2020</v>
@@ -36861,7 +36895,7 @@
       <c r="A10" s="331">
         <v>3</v>
       </c>
-      <c r="B10" s="602"/>
+      <c r="B10" s="611"/>
       <c r="C10" s="340">
         <f>C8+2</f>
         <v>2021</v>
@@ -36883,7 +36917,7 @@
       <c r="A11" s="331">
         <v>4</v>
       </c>
-      <c r="B11" s="602"/>
+      <c r="B11" s="611"/>
       <c r="C11" s="340">
         <f>C8+3</f>
         <v>2022</v>
@@ -36905,7 +36939,7 @@
       <c r="A12" s="331">
         <v>5</v>
       </c>
-      <c r="B12" s="602"/>
+      <c r="B12" s="611"/>
       <c r="C12" s="342">
         <f>C8+4</f>
         <v>2023</v>
@@ -36927,7 +36961,7 @@
       <c r="A13" s="335">
         <v>6</v>
       </c>
-      <c r="B13" s="603"/>
+      <c r="B13" s="612"/>
       <c r="C13" s="347">
         <f>C8+5</f>
         <v>2024</v>
@@ -36949,7 +36983,7 @@
       <c r="A14" s="331">
         <v>7</v>
       </c>
-      <c r="B14" s="604" t="s">
+      <c r="B14" s="599" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="340">
@@ -36973,7 +37007,7 @@
       <c r="A15" s="331">
         <v>8</v>
       </c>
-      <c r="B15" s="604"/>
+      <c r="B15" s="599"/>
       <c r="C15" s="341">
         <f>C8+1</f>
         <v>2020</v>
@@ -36995,7 +37029,7 @@
       <c r="A16" s="331">
         <v>9</v>
       </c>
-      <c r="B16" s="604"/>
+      <c r="B16" s="599"/>
       <c r="C16" s="340">
         <f>C8+2</f>
         <v>2021</v>
@@ -37017,7 +37051,7 @@
       <c r="A17" s="331">
         <v>10</v>
       </c>
-      <c r="B17" s="604"/>
+      <c r="B17" s="599"/>
       <c r="C17" s="340">
         <f>C8+3</f>
         <v>2022</v>
@@ -37039,7 +37073,7 @@
       <c r="A18" s="331">
         <v>11</v>
       </c>
-      <c r="B18" s="604"/>
+      <c r="B18" s="599"/>
       <c r="C18" s="342">
         <f>C8+4</f>
         <v>2023</v>
@@ -37061,7 +37095,7 @@
       <c r="A19" s="335">
         <v>12</v>
       </c>
-      <c r="B19" s="605"/>
+      <c r="B19" s="600"/>
       <c r="C19" s="106">
         <f>C8+5</f>
         <v>2024</v>
@@ -37083,7 +37117,7 @@
       <c r="A20" s="331">
         <v>13</v>
       </c>
-      <c r="B20" s="606" t="s">
+      <c r="B20" s="601" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="340">
@@ -37107,7 +37141,7 @@
       <c r="A21" s="331">
         <v>14</v>
       </c>
-      <c r="B21" s="606"/>
+      <c r="B21" s="601"/>
       <c r="C21" s="341">
         <f>C8+1</f>
         <v>2020</v>
@@ -37129,7 +37163,7 @@
       <c r="A22" s="331">
         <v>15</v>
       </c>
-      <c r="B22" s="606"/>
+      <c r="B22" s="601"/>
       <c r="C22" s="340">
         <f>C8+2</f>
         <v>2021</v>
@@ -37151,7 +37185,7 @@
       <c r="A23" s="331">
         <v>16</v>
       </c>
-      <c r="B23" s="606"/>
+      <c r="B23" s="601"/>
       <c r="C23" s="340">
         <f>C8+3</f>
         <v>2022</v>
@@ -37173,7 +37207,7 @@
       <c r="A24" s="331">
         <v>17</v>
       </c>
-      <c r="B24" s="606"/>
+      <c r="B24" s="601"/>
       <c r="C24" s="342">
         <f>C8+4</f>
         <v>2023</v>
@@ -37195,7 +37229,7 @@
       <c r="A25" s="335">
         <v>18</v>
       </c>
-      <c r="B25" s="600"/>
+      <c r="B25" s="602"/>
       <c r="C25" s="14">
         <f>C8+5</f>
         <v>2024</v>
@@ -37229,7 +37263,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:G7"/>
@@ -37238,6 +37271,7 @@
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.70866141732283472" bottom="0.59055118110236227" header="0.43307086614173229" footer="0.51181102362204722"/>
